--- a/PlanDePruebasRiesgosCasosDePrueba.xlsx
+++ b/PlanDePruebasRiesgosCasosDePrueba.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sofka\Training\Duras\Repos\C1-2023-QA-Calidad-RF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51D1462-6E15-47D6-8494-E0332A0F26DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EDA083-F19D-4139-8621-4DA260D5624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="8" xr2:uid="{AF02FBB8-0A87-4B34-9297-94FCF679C14E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{AF02FBB8-0A87-4B34-9297-94FCF679C14E}"/>
   </bookViews>
   <sheets>
-    <sheet name="PlaneDePruebaServicios" sheetId="1" r:id="rId1"/>
-    <sheet name="PlanDePruebaPapaJohn's" sheetId="2" r:id="rId2"/>
-    <sheet name="RiesgosServicios" sheetId="6" r:id="rId3"/>
-    <sheet name="RiesgosPapaJohn's" sheetId="7" r:id="rId4"/>
-    <sheet name="CPServicios" sheetId="4" r:id="rId5"/>
-    <sheet name="CPFlujoDeCompraPapaJohn's" sheetId="5" r:id="rId6"/>
-    <sheet name="GestiónDeIncidentesServicios" sheetId="9" r:id="rId7"/>
-    <sheet name="GestiónDeIncidentesPapaJohn's" sheetId="10" r:id="rId8"/>
-    <sheet name="NotaSobreServiciosREST-SOAP" sheetId="11" r:id="rId9"/>
+    <sheet name="PlanDePruebaPapaJohn's" sheetId="2" r:id="rId1"/>
+    <sheet name="RiesgosServicios" sheetId="6" r:id="rId2"/>
+    <sheet name="RiesgosPapaJohn's" sheetId="7" r:id="rId3"/>
+    <sheet name="CPServicios" sheetId="4" r:id="rId4"/>
+    <sheet name="CPFlujoDeCompraPapaJohn's" sheetId="5" r:id="rId5"/>
+    <sheet name="GestiónDeIncidentesServicios" sheetId="9" r:id="rId6"/>
+    <sheet name="GestiónDeIncidentesPapaJohn's" sheetId="10" r:id="rId7"/>
+    <sheet name="NotaSobreServiciosREST-SOAP" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="239">
   <si>
     <t>Plan de Calidad</t>
   </si>
@@ -76,90 +75,6 @@
     <t>Sprint</t>
   </si>
   <si>
-    <t>Abarca la ejecución de las pruebas funcionales para la petición GET LIST USERS en el canal: https://reqres.in</t>
-  </si>
-  <si>
-    <t>Abarca la ejecución de las pruebas funcionales para la petición POST REGISTER en el canal: https://reqres.in</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">No hace parte del alcance:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>No es objeto de prueba la verificación de funcionalidades que no hagan parte de la petición GET LIST USERS.
-Tampoco se tendrá en cuenta pruebas de seguridad, rendimiento y estrés.</t>
-    </r>
-  </si>
-  <si>
-    <t>Las actividades descritas en el alcance se realizarán en el transcurso del 27 de febrero en las horas 11:00 AM a 12:00 PM.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">No hace parte del alcance:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>No es objeto de prueba la verificación de funcionalidades que no hagan parte de la petición POST REGISTER.
-Tampoco se tendrá en cuenta pruebas de seguridad, rendimiento y estrés.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hace parte del alcance:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Verificar que un usuario NO definido NO se puede registrar.
-2. Verificar la visualización del mensaje de error cuando el campo de contraseña está vacío.
-3. Verificar la visualización del mensaje de error cuando el campo de correo está vacío.
-4. Verificar que la contraseña contenga mínimo 8 caracteres.</t>
-    </r>
-  </si>
-  <si>
     <t>N°</t>
   </si>
   <si>
@@ -241,189 +156,19 @@
     <t>Informar del defecto al equipo de desarrollo.</t>
   </si>
   <si>
-    <t>Se probará la respuesta de la petición.
-Se probará el URL de la petición realizando cambios en el parámetro de la página.</t>
-  </si>
-  <si>
-    <t>Abarca la ejecución de las pruebas funcionales para el registro de usuarios en el canal: https://tiendacereza.com/</t>
-  </si>
-  <si>
-    <t>Abarca la ejecución de las pruebas funcionales para el ingreso de usuarios en el canal: https://tiendacereza.com/</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">No hace parte del alcance:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>No es objeto de prueba la verificación de funcionalidades que no hagan parte del sistema de ingreso en la Tienda Cereza 🍒.
-Tampoco se tendrá en cuenta pruebas de seguridad, rendimiento y estrés.</t>
-    </r>
-  </si>
-  <si>
     <t>Las actividades descritas en el alcance se realizarán en el transcurso del 27 de febrero en las horas 12:00 PM a 01:00 PM.</t>
   </si>
   <si>
-    <t>Las actividades descritas en el alcance se realizarán en el transcurso del 27 de febrero en las horas 02:30 PM a 03:30 PM.</t>
-  </si>
-  <si>
-    <t>Las actividades descritas en el alcance se realizarán en el transcurso del 27 de febrero en las horas 03:30 PM a 04:25 PM.</t>
-  </si>
-  <si>
     <t>Se supone que solo se permite el registro de usuarios que están en la lista de la página.</t>
   </si>
   <si>
-    <t>Se supone que ya existen usuarios en la lista.</t>
-  </si>
-  <si>
-    <t>Se supone que los servicios de registro en la página están funcionales y estables.</t>
-  </si>
-  <si>
-    <t>Se supone que los servicios de ingreso en la página están funcionales y estables.</t>
-  </si>
-  <si>
     <t>Funcionamiento de los microservicios de la pagina reqres.in.</t>
-  </si>
-  <si>
-    <t>Funcionamiento de los microservicios de la pagina tiendacereza.com.</t>
   </si>
   <si>
     <t>Se recomienda ejecutar pruebas de seguridad.
 Se recomienda ejecutar pruebas de rendimiento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Se probará la respuesta de la petición.
-Se probará el URL de la petición realizando cambios en los campos de correo "name.last@reqres.in" y contraseña "pass123".
-Se realizarán peticiones con diferentes estructuras en el cuerpo a enviar.
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hace parte del alcance:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Verificar si la respuesta al realizar la petición adecuadamente es la correcta (200 OK).
-2. Verificar que el contenido de respuesta corresponda al formato adecuado (JSON con estructura valida).
-3. Verificar que, al enviar un valor adecuado al parámetro, la respuesta sea aceptada.
-4. Verificar que, al enviar un valor inadecuado al parámetro, la respuesta sea fallida.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hace parte del alcance:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Verificar que, al registrar un nuevo usuario, el sistema solicite de manera obligatoria el ingreso de la siguiente información: correo y contraseña.
-2. Verificar que, al registrar un nuevo usuario, el sistema solicite de manera NO obligatoria el ingreso de la siguiente información: nombre y apellido.
-3. Verificar la visualización del mensaje de error cuando se trata de crear un usuario con un correo ya existente en la BD del sistema.
-4. Verificar que la contraseña contenga mínimo 5 caracteres.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Se recomienda ejecutar pruebas de seguridad.
-Se recomienda ejecutar pruebas de rendimiento.
-Se recomienda ejecutar pruebas de estrés.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se probará que se exijan campos mínimos para el registro.
-Se realizaran registros con diferentes combinaciones de correo y contraseña, ya sean existentes o no, con longitudes de contraseña variantes.
-</t>
-  </si>
-  <si>
-    <t>Se probará el ingreso de usuarios que se hayan creado y usuarios que no se sepa de su existencia en la BD de la página.
-Se realizarán ingresos de usuario con los campos vacíos de correo o contraseña.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">No hace parte del alcance:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>No es objeto de prueba la verificación de funcionalidades que no hagan parte del sistema de registro en la Tienda Cereza 🍒.
-Tampoco se tendrá en cuenta pruebas de seguridad, rendimiento y estrés.</t>
-    </r>
-  </si>
-  <si>
     <t>Metodo Gherkin:</t>
   </si>
   <si>
@@ -619,44 +364,6 @@
     <t>debera recibir un mensaje de error "contraseña incorrecta"</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hace parte del alcance:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Verificar la visualización del mensaje de error al intentar ingresar sin rellenar el campo de contraseña.
-2. Verificar la visualización del mensaje de error al intentar ingresar sin rellenar el campo de correo.
-3. Verificar la visualización del mensaje de error al intentar ingresar con un usuario no registrado.
-4. Verificar la visualización del mensaje de error al intentar ingresar con una contraseña incorrecta para el usuario especificado.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-5. Verificar la visualización de un mensaje de bienvenida y la redirección a la homepage.
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> verificar que solo usuarios definidos puedan registrarse</t>
   </si>
   <si>
@@ -694,9 +401,6 @@
   </si>
   <si>
     <t xml:space="preserve">verificar el mensaje de error al intentar ingresar con credenciales no registradas </t>
-  </si>
-  <si>
-    <t>Fallo del servicio.</t>
   </si>
   <si>
     <t>Monitoreo constante de los servicios.</t>
@@ -2282,21 +1986,184 @@
   <si>
     <t>Se detallan algunas de las diferencias más importantes entre los servicios de tipo REST y SOAP:</t>
   </si>
+  <si>
+    <t xml:space="preserve">Área </t>
+  </si>
+  <si>
+    <t>Célula</t>
+  </si>
+  <si>
+    <t>Responsable Calidad</t>
+  </si>
+  <si>
+    <t>Analista de Certificación</t>
+  </si>
+  <si>
+    <t>Área 1</t>
+  </si>
+  <si>
+    <t>Célula 1</t>
+  </si>
+  <si>
+    <t>Externo</t>
+  </si>
+  <si>
+    <t>Estudiante de SofkaU</t>
+  </si>
+  <si>
+    <t>Célula 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hace parte del alcance:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Comprobar la correcta funcionalidad de los distintos botones involucrados en el flujo de compra.
+2. Revisar que un producto se agrega al carrito.
+3. Validar la adición y eliminación de ingredientes adicionales.
+4. Realizar diferentes combinaciones para tipos de salsa, masa y bordes para las pizzas.
+5. Comprobar que en el carrito se aumentan o disminuyen los productos con los signos +/-.
+6. Revisar que un producto se agrega al carrito desde la sección de "Completa tu orden".
+7. Validar el precio correspondiente a la cantidad de productos en el carrito.
+8. Realizar una compra con una cantidad cualquiera de productos para ser redireccionado a la sección de pagos.
+8. Comprobar que se soliciten los campos obligatorios en la sección de pago.
+9. Validar el mensaje de envío satisfactorio del pedido.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>El plan de prueba abarca la ejecución de las pruebas funcionales para el flujo de compra completo de una pizza, papadia, acompañamiento, postre, bebida o combo en el canal: https://www.domiciliospapajohns.com.co/ para verificar que cada paso involucrado en este proceso funcione correctamente.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No hace parte del alcance:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No es objeto del plan de prueba la verificación de funcionalidades que no hagan parte del flujo de compra y pago de alguno de los alimentos o bebidas mencionados en la descripción del presente plan.
+Tampoco se tendrán en cuenta pruebas de seguridad, rendimiento o estrés.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Se probará la respuesta de los diferentes botones cuando se interactua con ellos indistintamente.
+Se probará el "Happy path" con la compra de una pizza.
+Se realizarán distintos caminos de compra con otros productos, editando, aumentando y eliminandolos del carrito.
+Se probará la retención de la información en el carrito al cerrar sesión.
+Todas las pruebas serán ejecutadas manualmente, y como no se conoce el funcionamiento interno del sistema de Papa John's, todas las estrategias de prueba serán de caja negra.
+</t>
+  </si>
+  <si>
+    <t>Las actividades descritas en el alcance se realizarán en el transcurso del 4 de Marzo en las horas de 09:00 AM a 05:00 PM.</t>
+  </si>
+  <si>
+    <t>Tener una cuenta válida en la página de domicilios de Papa John´s.</t>
+  </si>
+  <si>
+    <t>Se recomienda ejecutar pruebas de seguridad debido a que se permite el pago por PSE y tarjetas de crédito o débito, lo que implica información bancaria delicada.
+Se recomienda ejecutar pruebas de rendimiento, ya que se evidencian tiempos de respuesta altos al interactuar con el sistema.</t>
+  </si>
+  <si>
+    <t>Se supone que cualquier tienda de Papa John´s en Medellín puede recibir el pedido.</t>
+  </si>
+  <si>
+    <t>Fallo del servicio de envío de mensajes.</t>
+  </si>
+  <si>
+    <t>El plan de prueba abarca la ejecución de las pruebas funcionales para los servicios SOAP de conversión de moneda y la tasa de conversión provistos por Xignite (https://www.xignite.com) esto con el objetivo de que en el canal https://www.domiciliospapajohns.com.co/ se puedan realizar compras con cualquier moneda, usando el USD como puente entre COP y las demás divisas.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hace parte del alcance:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Validar que se realiza una conversión entre USD y COP.
+2. Revisar la tasa de cambio de COP a USD.
+3. Validar que se realiza una conversión entre USD y otras divisas.
+4. Comprobar que la estructura XML devuelta corresponda con la especificada en ambos servicios.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>No hace parte del alcance:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+No es objeto del plan de prueba la verificación de funcionalidades que no hagan parte de los servicios de conversión de moneda y tasa de cambio.
+Tampoco se tendrán en cuenta pruebas de seguridad, rendimiento y estrés.</t>
+    </r>
+  </si>
+  <si>
+    <t>Se probará la respuesta de la petición.
+Se probará el URL de la petición realizando cambios en los campos de correo "name.last@reqres.in" y contraseña "pass123".
+Se realizarán peticiones con diferentes estructuras en el cuerpo a enviar.
+Todas las pruebas serán ejecutadas manualmente, y como no se conoce el funcionamiento interno de los servicios de conversión de moneda y tasa de cambio, todas las estrategias de prueba serán de caja negra.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2385,8 +2252,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2419,12 +2308,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor rgb="FFD8D8D8"/>
       </patternFill>
@@ -2447,8 +2330,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AC3EC"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF090947"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AC3EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -2485,21 +2386,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFFF7E06"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -2507,34 +2393,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF7E06"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF7E06"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF7E06"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF7E06"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFF7E06"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2730,43 +2588,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFF7E06"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFF7E06"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFF7E06"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFF7E06"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF7E06"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2832,215 +2653,501 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3370,6 +3477,8 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF090947"/>
+      <color rgb="FF6AC3EC"/>
       <color rgb="FFFF7E06"/>
       <color rgb="FFA5A5A5"/>
     </mruColors>
@@ -3389,6 +3498,61 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>519622</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56604</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053A3E6D-0DE3-D5E7-F171-E18F9F6B3515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11337301" y="231321"/>
+          <a:ext cx="2868555" cy="1219583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>694508</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -3396,9 +3560,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42969</xdr:colOff>
+      <xdr:colOff>58209</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>103415</xdr:rowOff>
+      <xdr:rowOff>97700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3451,7 +3615,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3462,9 +3626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>692846</xdr:colOff>
+      <xdr:colOff>694751</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>252549</xdr:rowOff>
+      <xdr:rowOff>248739</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3813,641 +3977,1452 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EA6F44-0A13-4B3B-95DA-2DE7B9084CBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52918882-42F7-4A79-8BF7-71EFDDF0321F}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="74" style="5" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="33.21875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" style="5"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-    </row>
-    <row r="2" spans="1:9" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+    </row>
+    <row r="2" spans="1:13" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="K3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="L3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="M3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:13" ht="378" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="162" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="288" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>50</v>
+      <c r="F5" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52918882-42F7-4A79-8BF7-71EFDDF0321F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480FDED1-1A1E-44D7-B872-85FF24D4C5DB}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" customWidth="1"/>
-    <col min="9" max="9" width="29.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="9"/>
+    <col min="5" max="5" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="9"/>
+    <col min="8" max="8" width="10.5546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-    </row>
-    <row r="2" spans="1:9" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="32">
+        <v>1</v>
+      </c>
+      <c r="E3" s="32">
+        <v>1</v>
+      </c>
+      <c r="F3" s="32">
+        <v>5</v>
+      </c>
+      <c r="G3" s="32">
+        <f>E3*F3</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="32">
+        <f>G3</f>
+        <v>5</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="B4" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="33">
+        <v>1</v>
+      </c>
+      <c r="E4" s="33">
+        <v>1</v>
+      </c>
+      <c r="F4" s="33">
+        <v>2</v>
+      </c>
+      <c r="G4" s="33">
+        <f t="shared" ref="G4:G9" si="0">E4*F4</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="33">
+        <f t="shared" ref="H4:H10" si="1">G4</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="32">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="B5" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="32">
+        <v>1</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1</v>
+      </c>
+      <c r="F5" s="32">
+        <v>5</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H5" s="32">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="B6" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="33">
+        <v>1</v>
+      </c>
+      <c r="E6" s="33">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="F6" s="33">
+        <v>5</v>
+      </c>
+      <c r="G6" s="33">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H6" s="33">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A7" s="32">
+        <v>5</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="32">
+        <v>3</v>
+      </c>
+      <c r="F7" s="32">
+        <v>5</v>
+      </c>
+      <c r="G7" s="32">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H7" s="32">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
         <v>6</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="B8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="33">
+        <v>1</v>
+      </c>
+      <c r="E8" s="33">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33">
+        <v>5</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H8" s="33">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A9" s="32">
         <v>7</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="B9" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32">
+        <v>3</v>
+      </c>
+      <c r="F9" s="32">
+        <v>5</v>
+      </c>
+      <c r="G9" s="32">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="32">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="162" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="B10" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="33">
+        <v>1</v>
+      </c>
+      <c r="E10" s="33">
+        <v>5</v>
+      </c>
+      <c r="F10" s="33">
+        <v>2</v>
+      </c>
+      <c r="G10" s="33">
+        <f>E10*F10</f>
+        <v>10</v>
+      </c>
+      <c r="H10" s="33">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A11" s="32">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="216" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32">
+        <v>7</v>
+      </c>
+      <c r="F11" s="32">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="32">
+        <f t="shared" ref="G11:G18" si="2">E11*F11</f>
+        <v>-7</v>
+      </c>
+      <c r="H11" s="32">
+        <f t="shared" ref="H11:H18" si="3">G11</f>
+        <v>-7</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <v>10</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="33">
+        <v>1</v>
+      </c>
+      <c r="E12" s="33">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>53</v>
+      <c r="F12" s="33">
+        <v>-4</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="2"/>
+        <v>-36</v>
+      </c>
+      <c r="H12" s="33">
+        <f t="shared" si="3"/>
+        <v>-36</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A13" s="32">
+        <v>11</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="32">
+        <v>11</v>
+      </c>
+      <c r="F13" s="32">
+        <v>-7</v>
+      </c>
+      <c r="G13" s="32">
+        <f t="shared" si="2"/>
+        <v>-77</v>
+      </c>
+      <c r="H13" s="32">
+        <f t="shared" si="3"/>
+        <v>-77</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <v>12</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="33">
+        <v>1</v>
+      </c>
+      <c r="E14" s="33">
+        <v>13</v>
+      </c>
+      <c r="F14" s="33">
+        <v>-10</v>
+      </c>
+      <c r="G14" s="33">
+        <f t="shared" si="2"/>
+        <v>-130</v>
+      </c>
+      <c r="H14" s="33">
+        <f t="shared" si="3"/>
+        <v>-130</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A15" s="32">
+        <v>13</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <v>15</v>
+      </c>
+      <c r="F15" s="32">
+        <v>-13</v>
+      </c>
+      <c r="G15" s="32">
+        <f t="shared" si="2"/>
+        <v>-195</v>
+      </c>
+      <c r="H15" s="32">
+        <f t="shared" si="3"/>
+        <v>-195</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <v>14</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="33">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33">
+        <v>17</v>
+      </c>
+      <c r="F16" s="33">
+        <v>-16</v>
+      </c>
+      <c r="G16" s="33">
+        <f t="shared" si="2"/>
+        <v>-272</v>
+      </c>
+      <c r="H16" s="33">
+        <f t="shared" si="3"/>
+        <v>-272</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A17" s="32">
+        <v>15</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="32">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
+        <v>19</v>
+      </c>
+      <c r="F17" s="32">
+        <v>-19</v>
+      </c>
+      <c r="G17" s="32">
+        <f t="shared" si="2"/>
+        <v>-361</v>
+      </c>
+      <c r="H17" s="32">
+        <f t="shared" si="3"/>
+        <v>-361</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A18" s="32">
+        <v>16</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+      <c r="E18" s="32">
+        <v>21</v>
+      </c>
+      <c r="F18" s="32">
+        <v>-22</v>
+      </c>
+      <c r="G18" s="32">
+        <f t="shared" si="2"/>
+        <v>-462</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="3"/>
+        <v>-462</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:H18">
+    <cfRule type="iconSet" priority="1">
+      <iconSet showValue="0" reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="4"/>
+        <cfvo type="num" val="12"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480FDED1-1A1E-44D7-B872-85FF24D4C5DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E30F7-763E-44A1-AC72-B58C102A0249}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="15"/>
-    <col min="5" max="5" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="15"/>
-    <col min="8" max="8" width="10.5546875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="15"/>
+    <col min="1" max="1" width="3.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="9"/>
+    <col min="5" max="5" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="9"/>
+    <col min="8" max="8" width="10.5546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.21875" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="A1" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="D3" s="32">
+        <v>1</v>
+      </c>
+      <c r="E3" s="32">
+        <v>2</v>
+      </c>
+      <c r="F3" s="32">
+        <v>5</v>
+      </c>
+      <c r="G3" s="32">
+        <f>E3*F3</f>
+        <v>10</v>
+      </c>
+      <c r="H3" s="32">
+        <f>G3</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="33">
+        <v>1</v>
+      </c>
+      <c r="E4" s="33">
+        <v>2</v>
+      </c>
+      <c r="F4" s="33">
+        <v>5</v>
+      </c>
+      <c r="G4" s="33">
+        <f t="shared" ref="G4" si="0">E4*F4</f>
+        <v>10</v>
+      </c>
+      <c r="H4" s="33">
+        <f t="shared" ref="H4:H10" si="1">G4</f>
+        <v>10</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A5" s="32">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="32">
+        <v>1</v>
+      </c>
+      <c r="E5" s="32">
+        <v>3</v>
+      </c>
+      <c r="F5" s="32">
+        <v>5</v>
+      </c>
+      <c r="G5" s="32">
+        <f>E5*F5</f>
+        <v>15</v>
+      </c>
+      <c r="H5" s="32">
+        <f>G5</f>
+        <v>15</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="33">
+        <v>1</v>
+      </c>
+      <c r="E6" s="33">
+        <v>1</v>
+      </c>
+      <c r="F6" s="33">
+        <v>3</v>
+      </c>
+      <c r="G6" s="33">
+        <f t="shared" ref="G6:G10" si="2">E6*F6</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="33">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A7" s="32">
+        <v>5</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="32">
+        <v>4</v>
+      </c>
+      <c r="F7" s="32">
+        <v>5</v>
+      </c>
+      <c r="G7" s="32">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H7" s="32">
+        <f>G7</f>
+        <v>20</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="33">
+        <v>1</v>
+      </c>
+      <c r="E8" s="33">
+        <v>2</v>
+      </c>
+      <c r="F8" s="33">
+        <v>3</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H8" s="33">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="J8" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32">
+        <v>7</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="E9" s="32">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="F9" s="32">
         <v>5</v>
       </c>
-      <c r="G3" s="1">
-        <f>E3*F3</f>
+      <c r="G9" s="32">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H3" s="1">
-        <f>G3</f>
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" ref="G4:G9" si="0">E4*F4</f>
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" ref="H4:H10" si="1">G4</f>
-        <v>2</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="H9" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="I9" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>8</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="33">
+        <v>1</v>
+      </c>
+      <c r="E10" s="33">
+        <v>1</v>
+      </c>
+      <c r="F10" s="33">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="G10" s="33">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H10" s="33">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="33">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E11" s="33">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F11" s="33">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="0"/>
+      <c r="G11" s="33">
+        <f t="shared" ref="G11:G18" si="3">E11*F11</f>
+        <v>1.666666666666665</v>
+      </c>
+      <c r="H11" s="33">
+        <f t="shared" ref="H11:H18" si="4">G11</f>
+        <v>1.666666666666665</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A12" s="32">
+        <v>10</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1</v>
+      </c>
+      <c r="E12" s="32">
+        <v>-0.16666666666666699</v>
+      </c>
+      <c r="F12" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="G12" s="32">
+        <f t="shared" si="3"/>
+        <v>-0.91666666666666841</v>
+      </c>
+      <c r="H12" s="32">
+        <f t="shared" si="4"/>
+        <v>-0.91666666666666841</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <v>11</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1</v>
+      </c>
+      <c r="E13" s="33">
+        <v>-0.66666666666666696</v>
+      </c>
+      <c r="F13" s="33">
+        <v>6</v>
+      </c>
+      <c r="G13" s="33">
+        <f t="shared" si="3"/>
+        <v>-4.0000000000000018</v>
+      </c>
+      <c r="H13" s="33">
+        <f t="shared" si="4"/>
+        <v>-4.0000000000000018</v>
+      </c>
+      <c r="I13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3">
-        <f t="shared" si="1"/>
+      <c r="J13" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <v>12</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="33">
+        <v>1</v>
+      </c>
+      <c r="E14" s="33">
+        <v>-1.1666666666666701</v>
+      </c>
+      <c r="F14" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="G14" s="33">
+        <f t="shared" si="3"/>
+        <v>-7.5833333333333552</v>
+      </c>
+      <c r="H14" s="33">
+        <f t="shared" si="4"/>
+        <v>-7.5833333333333552</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A15" s="32">
+        <v>13</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <v>-1.6666666666666701</v>
+      </c>
+      <c r="F15" s="32">
+        <v>7</v>
+      </c>
+      <c r="G15" s="32">
+        <f t="shared" si="3"/>
+        <v>-11.666666666666691</v>
+      </c>
+      <c r="H15" s="32">
+        <f t="shared" si="4"/>
+        <v>-11.666666666666691</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <v>14</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="33">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33">
+        <v>-2.1666666666666701</v>
+      </c>
+      <c r="F16" s="33">
+        <v>7.5</v>
+      </c>
+      <c r="G16" s="33">
+        <f t="shared" si="3"/>
+        <v>-16.250000000000025</v>
+      </c>
+      <c r="H16" s="33">
+        <f t="shared" si="4"/>
+        <v>-16.250000000000025</v>
+      </c>
+      <c r="I16" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="J16" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>15</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="33">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="E17" s="33">
+        <v>-2.6666666666666701</v>
+      </c>
+      <c r="F17" s="33">
+        <v>8</v>
+      </c>
+      <c r="G17" s="33">
+        <f t="shared" si="3"/>
+        <v>-21.333333333333361</v>
+      </c>
+      <c r="H17" s="33">
+        <f t="shared" si="4"/>
+        <v>-21.333333333333361</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+      <c r="A18" s="32">
+        <v>16</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="32">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4">
-        <f>E10*F10</f>
-        <v>10</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>42</v>
+      <c r="E18" s="32">
+        <v>-3.1666666666666701</v>
+      </c>
+      <c r="F18" s="32">
+        <v>8.5</v>
+      </c>
+      <c r="G18" s="32">
+        <f t="shared" si="3"/>
+        <v>-26.916666666666696</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="4"/>
+        <v>-26.916666666666696</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:H10">
+  <conditionalFormatting sqref="H3:H18">
     <cfRule type="iconSet" priority="1">
       <iconSet showValue="0" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -4462,411 +5437,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E30F7-763E-44A1-AC72-B58C102A0249}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="15"/>
-    <col min="5" max="5" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="15"/>
-    <col min="8" max="8" width="10.5546875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.21875" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <f>E3*F3</f>
-        <v>10</v>
-      </c>
-      <c r="H3" s="1">
-        <f>G3</f>
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" ref="G4" si="0">E4*F4</f>
-        <v>10</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" ref="H4:H10" si="1">G4</f>
-        <v>10</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <f>E5*F5</f>
-        <v>15</v>
-      </c>
-      <c r="H5" s="1">
-        <f>G5</f>
-        <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" ref="G6:G10" si="2">E6*F6</f>
-        <v>3</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H7" s="1">
-        <f>G7</f>
-        <v>20</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>4</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H10">
-    <cfRule type="iconSet" priority="1">
-      <iconSet showValue="0" reverse="1">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="4"/>
-        <cfvo type="num" val="12"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2406D1D5-C0F8-4862-8277-1721ED58A928}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4874,290 +5453,291 @@
     <col min="2" max="2" width="75.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="D13" s="89"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="20" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="B28" s="19"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="21" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="22"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="25"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="25"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B35" s="19"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="21" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="25"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="25"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="25"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
     <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>19</v>
+      <c r="A40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5171,683 +5751,685 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCE272-65CE-4E61-8DFF-1708BEA28DC8}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:B52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>133</v>
+      <c r="A1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="19"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="19"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="26"/>
+      <c r="B41" s="27"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="19"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+      <c r="B50" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="12"/>
+      <c r="B52" s="15"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="14"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="28" t="s">
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="12"/>
+      <c r="B59" s="16"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="28" t="s">
+      <c r="B60" s="19"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="22"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="25"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="28" t="s">
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="12"/>
+      <c r="B66" s="16"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="18" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="28" t="s">
+      <c r="B67" s="19"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="28" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="25"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
-      <c r="B20" s="22"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="12"/>
+      <c r="B73" s="16"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="25"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="28" t="s">
+      <c r="B74" s="19"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="21" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-      <c r="B27" s="22"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="12"/>
+      <c r="B80" s="16"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="25"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="28" t="s">
+      <c r="B81" s="19"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="28" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="25"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="25"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="18"/>
-      <c r="B52" s="21"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="20"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="18"/>
-      <c r="B59" s="22"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="25"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="18"/>
-      <c r="B66" s="22"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="25"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="18"/>
-      <c r="B73" s="22"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B74" s="25"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="18"/>
-      <c r="B80" s="22"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B81" s="25"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>18</v>
+      <c r="A86" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="35"/>
-      <c r="B87" s="36"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="27"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B88" s="25"/>
+      <c r="A88" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="19"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>170</v>
+      <c r="A89" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="28" t="s">
-        <v>114</v>
+      <c r="A90" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>168</v>
+      <c r="A91" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>171</v>
+      <c r="A92" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B93" s="30" t="s">
-        <v>19</v>
+      <c r="A93" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5855,7 +6437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0993C8F5-BDF9-42D6-873D-DAC0BD643BE2}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5863,7 +6445,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -5876,188 +6458,189 @@
     <col min="6" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="E2" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="66" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="57"/>
+    </row>
+    <row r="6" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+    </row>
+    <row r="7" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+    </row>
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="63"/>
+    </row>
+    <row r="9" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+    </row>
+    <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+    </row>
+    <row r="11" spans="1:5" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+    </row>
+    <row r="13" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="55"/>
+    </row>
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="E2" s="37" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="56"/>
-    </row>
-    <row r="6" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-    </row>
-    <row r="7" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-    </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="62"/>
-    </row>
-    <row r="9" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-    </row>
-    <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="62"/>
-    </row>
-    <row r="11" spans="1:5" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="58"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-    </row>
-    <row r="13" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="54"/>
-    </row>
-    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>182</v>
+      <c r="A15" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" s="56"/>
+      <c r="A16" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="57"/>
     </row>
     <row r="17" spans="1:3" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
     </row>
     <row r="18" spans="1:3" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
+      <c r="A18" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
     </row>
     <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="62"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
+      <c r="A19" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="63"/>
+    </row>
+    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
     </row>
     <row r="21" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-    </row>
-    <row r="22" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
+      <c r="A21" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+    </row>
+    <row r="22" spans="1:3" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6081,15 +6664,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67ACC392-DCEC-48D7-82D4-3A162F98740F}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -6102,277 +6685,277 @@
     <col min="6" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+    </row>
+    <row r="2" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="E2" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="57"/>
+    </row>
+    <row r="6" spans="1:5" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+    </row>
+    <row r="7" spans="1:5" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+    </row>
+    <row r="8" spans="1:5" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="63"/>
+    </row>
+    <row r="9" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+    </row>
+    <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+    </row>
+    <row r="11" spans="1:5" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+    </row>
+    <row r="13" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
-    </row>
-    <row r="2" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="E2" s="37" t="s">
+      <c r="C13" s="55"/>
+    </row>
+    <row r="14" spans="1:5" ht="108" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C15" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="57"/>
+    </row>
+    <row r="17" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+    </row>
+    <row r="18" spans="1:3" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+    </row>
+    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="63"/>
+    </row>
+    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+    </row>
+    <row r="21" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+    </row>
+    <row r="22" spans="1:3" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="56"/>
-    </row>
-    <row r="6" spans="1:5" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-    </row>
-    <row r="7" spans="1:5" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+    </row>
+    <row r="23" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-    </row>
-    <row r="8" spans="1:5" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="62"/>
-    </row>
-    <row r="9" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-    </row>
-    <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="62"/>
-    </row>
-    <row r="11" spans="1:5" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="58"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-    </row>
-    <row r="13" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="54"/>
-    </row>
-    <row r="14" spans="1:5" ht="108" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" s="56"/>
-    </row>
-    <row r="17" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-    </row>
-    <row r="18" spans="1:3" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-    </row>
-    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="62"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-    </row>
-    <row r="21" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="62"/>
-    </row>
-    <row r="22" spans="1:3" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="58"/>
-    </row>
-    <row r="23" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="54"/>
+      <c r="B24" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="80"/>
     </row>
     <row r="25" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="56"/>
+        <v>171</v>
+      </c>
+      <c r="B27" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="82"/>
     </row>
     <row r="28" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
+        <v>160</v>
+      </c>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
     </row>
     <row r="29" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
+        <v>159</v>
+      </c>
+      <c r="B29" s="73"/>
+      <c r="C29" s="75"/>
     </row>
     <row r="30" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B30" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" s="62"/>
+        <v>203</v>
+      </c>
+      <c r="B30" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="72"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
+      <c r="A31" s="86" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
     </row>
     <row r="32" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
     </row>
     <row r="33" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="60"/>
+      <c r="A33" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -6403,59 +6986,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AC51D1-C609-40D7-B3C9-94945E820804}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="220.33203125" style="30" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="30"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>240</v>
+    <row r="1" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="39" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="41"/>
+    </row>
+    <row r="11" spans="1:1" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="43" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/PlanDePruebasRiesgosCasosDePrueba.xlsx
+++ b/PlanDePruebasRiesgosCasosDePrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sofka\Training\Duras\Repos\C1-2023-QA-Calidad-RF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EDA083-F19D-4139-8621-4DA260D5624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1DCE07-FB3E-44A7-9197-6C2417FEB91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{AF02FBB8-0A87-4B34-9297-94FCF679C14E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AF02FBB8-0A87-4B34-9297-94FCF679C14E}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanDePruebaPapaJohn's" sheetId="2" r:id="rId1"/>
@@ -156,19 +156,6 @@
     <t>Informar del defecto al equipo de desarrollo.</t>
   </si>
   <si>
-    <t>Las actividades descritas en el alcance se realizarán en el transcurso del 27 de febrero en las horas 12:00 PM a 01:00 PM.</t>
-  </si>
-  <si>
-    <t>Se supone que solo se permite el registro de usuarios que están en la lista de la página.</t>
-  </si>
-  <si>
-    <t>Funcionamiento de los microservicios de la pagina reqres.in.</t>
-  </si>
-  <si>
-    <t>Se recomienda ejecutar pruebas de seguridad.
-Se recomienda ejecutar pruebas de rendimiento.</t>
-  </si>
-  <si>
     <t>Metodo Gherkin:</t>
   </si>
   <si>
@@ -2083,9 +2070,6 @@
 </t>
   </si>
   <si>
-    <t>Las actividades descritas en el alcance se realizarán en el transcurso del 4 de Marzo en las horas de 09:00 AM a 05:00 PM.</t>
-  </si>
-  <si>
     <t>Tener una cuenta válida en la página de domicilios de Papa John´s.</t>
   </si>
   <si>
@@ -2150,9 +2134,26 @@
     </r>
   </si>
   <si>
-    <t>Se probará la respuesta de la petición.
-Se probará el URL de la petición realizando cambios en los campos de correo "name.last@reqres.in" y contraseña "pass123".
-Se realizarán peticiones con diferentes estructuras en el cuerpo a enviar.
+    <t>Las actividades descritas en el alcance se realizarán en el transcurso del 4 de marzo en las horas de 09:00 AM a 05:00 PM.</t>
+  </si>
+  <si>
+    <t>Las actividades descritas en el alcance se realizarán en el transcurso del 5 de marzo en las horas de 08:00 AM a 05:00 PM.</t>
+  </si>
+  <si>
+    <t>Tener una cuenta en Xignite con acceso a los servicios SOAP de conversión de moneda y tasa de cambio.</t>
+  </si>
+  <si>
+    <t>Se recomienda ejecutar pruebas de seguridad, debido a la presencia de un token de autenticación generado en la página de Xignite.
+Se recomienda ejecutar pruebas de estrés, ya que el servicio puede ser utilizado por muchas personas a la vez.</t>
+  </si>
+  <si>
+    <t>Se supone que Xignite permite realizar peticiones desde el cliente SOAP UI.</t>
+  </si>
+  <si>
+    <t>Se probarán las respuestas de las peticiones sin un token de autenticación válido.
+Se probarán las peticiones realizando cambios válidos y no válidos en los campos no obligatorios de Username, Password, Tracer, From, To, Country, Symbol y AsOfDate.
+Se probará la petición de conversión de moneda, realizando cambios válidos y no válidos en el campo Amount.
+Se realizará una comprobación de las respuestas recibidas por los servicios.
 Todas las pruebas serán ejecutadas manualmente, y como no se conoce el funcionamiento interno de los servicios de conversión de moneda y tasa de cambio, todas las estrategias de prueba serán de caja negra.</t>
   </si>
 </sst>
@@ -2899,7 +2900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3015,12 +3016,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3147,7 +3148,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3499,15 +3499,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>519622</xdr:colOff>
+      <xdr:colOff>463018</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>56604</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>22154</xdr:rowOff>
+      <xdr:rowOff>8964</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3522,7 +3522,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -3530,14 +3530,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="24358" b="21755"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11337301" y="231321"/>
-          <a:ext cx="2868555" cy="1219583"/>
+          <a:off x="12574336" y="233082"/>
+          <a:ext cx="2853923" cy="654423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3983,8 +3982,9 @@
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3997,55 +3997,55 @@
     <col min="6" max="6" width="52.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="63.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.44140625" customWidth="1"/>
     <col min="10" max="10" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-    </row>
-    <row r="2" spans="1:13" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+    </row>
+    <row r="2" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>0</v>
@@ -4077,84 +4077,84 @@
     </row>
     <row r="4" spans="1:13" ht="378" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="L4" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" s="33" t="s">
+      <c r="M4" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="I4" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="288" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" ht="369.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>225</v>
-      </c>
       <c r="C5" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>238</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4196,7 +4196,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>21</v>
@@ -4271,7 +4271,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -4279,10 +4279,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D4" s="33">
         <v>1</v>
@@ -4305,7 +4305,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -4830,7 +4830,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -4879,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>21</v>
@@ -4905,7 +4905,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -4913,7 +4913,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>21</v>
@@ -4939,7 +4939,7 @@
         <v>23</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="54" x14ac:dyDescent="0.3">
@@ -4981,7 +4981,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>21</v>
@@ -5007,7 +5007,7 @@
         <v>25</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="54" x14ac:dyDescent="0.3">
@@ -5015,10 +5015,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D7" s="32">
         <v>1</v>
@@ -5041,7 +5041,7 @@
         <v>35</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="54" x14ac:dyDescent="0.3">
@@ -5049,7 +5049,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>21</v>
@@ -5075,7 +5075,7 @@
         <v>23</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -5083,10 +5083,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D9" s="32">
         <v>1</v>
@@ -5109,7 +5109,7 @@
         <v>22</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="54" x14ac:dyDescent="0.3">
@@ -5117,7 +5117,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>21</v>
@@ -5143,7 +5143,7 @@
         <v>25</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="54" x14ac:dyDescent="0.3">
@@ -5151,7 +5151,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>21</v>
@@ -5177,18 +5177,18 @@
         <v>23</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>10</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D12" s="32">
         <v>1</v>
@@ -5211,7 +5211,7 @@
         <v>22</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="54" x14ac:dyDescent="0.3">
@@ -5219,7 +5219,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>21</v>
@@ -5245,7 +5245,7 @@
         <v>25</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="54" x14ac:dyDescent="0.3">
@@ -5253,7 +5253,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>21</v>
@@ -5279,18 +5279,18 @@
         <v>23</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>13</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D15" s="32">
         <v>1</v>
@@ -5313,7 +5313,7 @@
         <v>22</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="54" x14ac:dyDescent="0.3">
@@ -5321,7 +5321,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>21</v>
@@ -5347,7 +5347,7 @@
         <v>25</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="54" x14ac:dyDescent="0.3">
@@ -5355,7 +5355,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>21</v>
@@ -5381,18 +5381,18 @@
         <v>23</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>16</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D18" s="32">
         <v>1</v>
@@ -5415,7 +5415,7 @@
         <v>22</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5441,9 +5441,9 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -5453,138 +5453,137 @@
     <col min="2" max="2" width="75.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="16"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="B10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="49"/>
       <c r="B13" s="50"/>
-      <c r="D13" s="89"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="19"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>12</v>
@@ -5596,45 +5595,45 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B21" s="19"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>12</v>
@@ -5646,45 +5645,45 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B28" s="19"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>12</v>
@@ -5696,45 +5695,45 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B35" s="19"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>13</v>
@@ -5770,38 +5769,38 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5810,45 +5809,45 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B7" s="19"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>12</v>
@@ -5860,45 +5859,45 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" s="19"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>13</v>
@@ -5910,45 +5909,45 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B21" s="19"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>12</v>
@@ -5960,45 +5959,45 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B28" s="19"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>12</v>
@@ -6010,45 +6009,45 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B35" s="19"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>13</v>
@@ -6060,45 +6059,45 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B42" s="19"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>12</v>
@@ -6106,30 +6105,30 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6138,45 +6137,45 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B53" s="14"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>12</v>
@@ -6188,45 +6187,45 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B60" s="19"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>12</v>
@@ -6238,45 +6237,45 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B67" s="19"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B72" s="17" t="s">
         <v>12</v>
@@ -6288,45 +6287,45 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B74" s="19"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>12</v>
@@ -6338,45 +6337,45 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B81" s="19"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>12</v>
@@ -6388,45 +6387,45 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B88" s="19"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B93" s="21" t="s">
         <v>13</v>
@@ -6460,94 +6459,94 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C2" s="55"/>
       <c r="E2" s="28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C5" s="57"/>
     </row>
     <row r="6" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B6" s="58"/>
       <c r="C6" s="59"/>
     </row>
     <row r="7" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B7" s="60"/>
       <c r="C7" s="61"/>
     </row>
     <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C8" s="63"/>
     </row>
     <row r="9" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B9" s="65"/>
       <c r="C9" s="66"/>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="69"/>
     </row>
     <row r="11" spans="1:5" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="53"/>
@@ -6560,84 +6559,84 @@
     </row>
     <row r="13" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C13" s="55"/>
     </row>
     <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C16" s="57"/>
     </row>
     <row r="17" spans="1:3" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="59"/>
     </row>
     <row r="18" spans="1:3" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
     </row>
     <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C19" s="63"/>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B20" s="65"/>
       <c r="C20" s="66"/>
     </row>
     <row r="21" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B21" s="68"/>
       <c r="C21" s="69"/>
     </row>
     <row r="22" spans="1:3" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="51" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="53"/>
@@ -6687,94 +6686,94 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C2" s="55"/>
       <c r="E2" s="28" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C5" s="57"/>
     </row>
     <row r="6" spans="1:5" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B6" s="58"/>
       <c r="C6" s="59"/>
     </row>
     <row r="7" spans="1:5" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B7" s="60"/>
       <c r="C7" s="61"/>
     </row>
     <row r="8" spans="1:5" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C8" s="63"/>
     </row>
     <row r="9" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B9" s="65"/>
       <c r="C9" s="66"/>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="69"/>
     </row>
     <row r="11" spans="1:5" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="53"/>
@@ -6786,84 +6785,84 @@
     </row>
     <row r="13" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C13" s="55"/>
     </row>
     <row r="14" spans="1:5" ht="108" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C16" s="57"/>
     </row>
     <row r="17" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="59"/>
     </row>
     <row r="18" spans="1:3" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
     </row>
     <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C19" s="63"/>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B20" s="65"/>
       <c r="C20" s="66"/>
     </row>
     <row r="21" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B21" s="68"/>
       <c r="C21" s="69"/>
     </row>
     <row r="22" spans="1:3" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="51" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="53"/>
@@ -6875,101 +6874,90 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C24" s="80"/>
     </row>
     <row r="25" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C27" s="82"/>
     </row>
     <row r="28" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B28" s="83"/>
       <c r="C28" s="84"/>
     </row>
     <row r="29" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B29" s="73"/>
       <c r="C29" s="75"/>
     </row>
     <row r="30" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B30" s="85" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C30" s="72"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="86" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B31" s="87"/>
       <c r="C31" s="88"/>
     </row>
     <row r="32" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="70" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B32" s="71"/>
       <c r="C32" s="72"/>
     </row>
     <row r="33" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="73" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B33" s="74"/>
       <c r="C33" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A23:C23"/>
@@ -6980,6 +6968,17 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7005,7 +7004,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -7013,37 +7012,37 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="40" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -7051,7 +7050,7 @@
     </row>
     <row r="11" spans="1:1" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="43" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/PlanDePruebasRiesgosCasosDePrueba.xlsx
+++ b/PlanDePruebasRiesgosCasosDePrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sofka\Training\Duras\Repos\C1-2023-QA-Calidad-RF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1DCE07-FB3E-44A7-9197-6C2417FEB91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65973B75-DF4A-495F-80BF-860F2F0590FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AF02FBB8-0A87-4B34-9297-94FCF679C14E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="893" xr2:uid="{AF02FBB8-0A87-4B34-9297-94FCF679C14E}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanDePruebaPapaJohn's" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="264">
   <si>
     <t>Plan de Calidad</t>
   </si>
@@ -117,45 +117,18 @@
     <t>Mitigar</t>
   </si>
   <si>
-    <t>La petición no es aceptada a pesar de enviar un valor de parámetro correcto.</t>
-  </si>
-  <si>
     <t>Contener</t>
   </si>
   <si>
-    <t>Revisar el codigo detrás de la petición y cambiar la parte de validación del parametro recibido.</t>
-  </si>
-  <si>
-    <t>La petición es aceptada a pesar de enviar un valor de parámetro incorrecto.</t>
-  </si>
-  <si>
-    <t>Un usuario que está definido, no se puede registrar.</t>
-  </si>
-  <si>
-    <t>Realizar una correcta asociación entre la definición de usuario y el sistema de registro.</t>
-  </si>
-  <si>
     <t>Se registra un usuario con contraseña vacía.</t>
   </si>
   <si>
     <t>Realizar una correcta definición de las reglas para la aceptación de una contraseña como válida.</t>
   </si>
   <si>
-    <t>Se registra un usuario con correo vacío.</t>
-  </si>
-  <si>
-    <t>Realizar una correcta definición de las reglas para la aceptación de un correo como válido.</t>
-  </si>
-  <si>
-    <t>Se registra un usuario con contraseña de menos de 5 caracteres.</t>
-  </si>
-  <si>
     <t>Transferir</t>
   </si>
   <si>
-    <t>Informar del defecto al equipo de desarrollo.</t>
-  </si>
-  <si>
     <t>Metodo Gherkin:</t>
   </si>
   <si>
@@ -393,19 +366,10 @@
     <t>Monitoreo constante de los servicios.</t>
   </si>
   <si>
-    <t>Interrupción en la red.</t>
-  </si>
-  <si>
     <t>Proyecto</t>
   </si>
   <si>
     <t>No se puede controlar la caída de la red.</t>
-  </si>
-  <si>
-    <t>Riesgos de servicios REQRES</t>
-  </si>
-  <si>
-    <t>Riesgos de Registro e Ingreso en Tienda Cereza 🍒</t>
   </si>
   <si>
     <t>verificar la visualización del mensaje de error cuando el campo password esta vacío</t>
@@ -891,9 +855,6 @@
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <t>Informe de Defectos Servicios</t>
   </si>
   <si>
     <r>
@@ -2062,14 +2023,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Se probará la respuesta de los diferentes botones cuando se interactua con ellos indistintamente.
-Se probará el "Happy path" con la compra de una pizza.
-Se realizarán distintos caminos de compra con otros productos, editando, aumentando y eliminandolos del carrito.
-Se probará la retención de la información en el carrito al cerrar sesión.
-Todas las pruebas serán ejecutadas manualmente, y como no se conoce el funcionamiento interno del sistema de Papa John's, todas las estrategias de prueba serán de caja negra.
-</t>
-  </si>
-  <si>
     <t>Tener una cuenta válida en la página de domicilios de Papa John´s.</t>
   </si>
   <si>
@@ -2078,9 +2031,6 @@
   </si>
   <si>
     <t>Se supone que cualquier tienda de Papa John´s en Medellín puede recibir el pedido.</t>
-  </si>
-  <si>
-    <t>Fallo del servicio de envío de mensajes.</t>
   </si>
   <si>
     <t>El plan de prueba abarca la ejecución de las pruebas funcionales para los servicios SOAP de conversión de moneda y la tasa de conversión provistos por Xignite (https://www.xignite.com) esto con el objetivo de que en el canal https://www.domiciliospapajohns.com.co/ se puedan realizar compras con cualquier moneda, usando el USD como puente entre COP y las demás divisas.</t>
@@ -2155,6 +2105,132 @@
 Se probará la petición de conversión de moneda, realizando cambios válidos y no válidos en el campo Amount.
 Se realizará una comprobación de las respuestas recibidas por los servicios.
 Todas las pruebas serán ejecutadas manualmente, y como no se conoce el funcionamiento interno de los servicios de conversión de moneda y tasa de cambio, todas las estrategias de prueba serán de caja negra.</t>
+  </si>
+  <si>
+    <t>As:</t>
+  </si>
+  <si>
+    <t>I want:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario Outline: </t>
+  </si>
+  <si>
+    <t>Examples:</t>
+  </si>
+  <si>
+    <t>||
+||</t>
+  </si>
+  <si>
+    <t>Background:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se probará la respuesta de los diferentes botones cuando se interactúa con ellos indistintamente.
+Se probará el "Happy path" con la compra de una pizza.
+Se realizarán distintos caminos de compra con otros productos, editando, aumentando y eliminándolos del carrito.
+Se probará la retención de la información en el carrito al cerrar sesión.
+Todas las pruebas serán ejecutadas manualmente, y como no se conoce el funcionamiento interno del sistema de Papa John's, todas las estrategias de prueba serán de caja negra.
+</t>
+  </si>
+  <si>
+    <t>Interrupción en la red en cualquier punto del proceso.</t>
+  </si>
+  <si>
+    <t>Xignite deja de funcionar</t>
+  </si>
+  <si>
+    <t>Buscar un proveedor de servicios similar inmediatamente.</t>
+  </si>
+  <si>
+    <t>Faltan digitos en la tasa de cambio devuelta</t>
+  </si>
+  <si>
+    <t>Realizar una conexión adecuada con la BD donde se almacenan las tasas de cambio.</t>
+  </si>
+  <si>
+    <t>No se reconoce una moneda oficial</t>
+  </si>
+  <si>
+    <t>Realizar una conexión adecuada con la BD donde se almacenan las monedas oficiales.</t>
+  </si>
+  <si>
+    <t>El token de acceso cadua antes de lo previsto</t>
+  </si>
+  <si>
+    <t>Solicitar otro token de acceso.</t>
+  </si>
+  <si>
+    <t>Se olvida la cuenta registrada en Xignite</t>
+  </si>
+  <si>
+    <t>Informar al PO para que recupere la información necesaria.</t>
+  </si>
+  <si>
+    <t>Riesgos de servicios Xignite</t>
+  </si>
+  <si>
+    <t>Informe de Defectos Servicios Xignite</t>
+  </si>
+  <si>
+    <t>Fallo del servicio durante el envío de conversión de moneda.</t>
+  </si>
+  <si>
+    <t>Fallo del servicio durante el envío de tasa de cambio.</t>
+  </si>
+  <si>
+    <t>El servicio de cambio de moneda no es compatible con SOAP UI</t>
+  </si>
+  <si>
+    <t>Realizar la lectura de la documentación previamente para descartar la incompatibilidad.</t>
+  </si>
+  <si>
+    <t>El servicio de tasa de cambio no es compatible con SOAP UI</t>
+  </si>
+  <si>
+    <t>Se agotan los intentos de petición en la cuenta de Xignite</t>
+  </si>
+  <si>
+    <t>Comunicar al PO para que renueve los intentos o facilite una cuenta nueva con acceso a más intentos.</t>
+  </si>
+  <si>
+    <t>Escala</t>
+  </si>
+  <si>
+    <t>Riesgos en el flujo de compra de Papa John's 🍕</t>
+  </si>
+  <si>
+    <t>Informe de Defectos Papa John's 🍕</t>
+  </si>
+  <si>
+    <t>Un tipo de moneda en especifico que no está en los servicios de Xignite es requerido por el cliente</t>
+  </si>
+  <si>
+    <t>Se le recomienda al usuario utilizar dólares en su lugar.</t>
+  </si>
+  <si>
+    <t>Los servicios solo aceptan los tipos de moneda en mayuscula</t>
+  </si>
+  <si>
+    <t>Aplicar un método de conversión toUpperCase().</t>
+  </si>
+  <si>
+    <t>La definición WSDL provista por XIgnite carece de los servicios requeridos</t>
+  </si>
+  <si>
+    <t>Informar al PO para que solicite una definición WSDL adecuada.</t>
+  </si>
+  <si>
+    <t>La tasa de cambio devuelta por el servicio es negativa</t>
+  </si>
+  <si>
+    <t>Realizar una revisión meticulosa de la BD de tasas de cambio identificando las tasas negativas y reportando esto a Xignite antes de usar el servicio.</t>
+  </si>
+  <si>
+    <t>Se cambia la versión de los servicios desde Xignite</t>
+  </si>
+  <si>
+    <t>Solicitar la definición WSDL actualizada para el servicio en cuestión.</t>
   </si>
 </sst>
 </file>
@@ -2350,7 +2426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -2709,34 +2785,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="8"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
       <top style="thin">
         <color theme="8"/>
       </top>
@@ -2754,42 +2806,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8"/>
-      </left>
       <right/>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
       <top style="thin">
         <color theme="8"/>
       </top>
@@ -2811,44 +2828,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8"/>
-      </left>
       <right/>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
       <top style="thin">
         <color theme="8"/>
       </top>
@@ -2896,11 +2876,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2973,9 +3148,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2996,16 +3168,13 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3034,61 +3203,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3147,6 +3283,72 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3553,15 +3755,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>694508</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4355</xdr:rowOff>
+      <xdr:colOff>320614</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>363855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>58209</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>97700</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>478972</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3591,8 +3793,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10935788" y="232955"/>
-          <a:ext cx="6480781" cy="3299460"/>
+          <a:off x="10574957" y="1049655"/>
+          <a:ext cx="6515615" cy="3293745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3618,16 +3820,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>551904</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>153489</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>510297</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>694751</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>248739</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3657,8 +3859,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11742418" y="382089"/>
-          <a:ext cx="6498199" cy="3299460"/>
+          <a:off x="10971468" y="819150"/>
+          <a:ext cx="6500104" cy="3295650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3992,7 +4194,7 @@
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="63.21875" bestFit="1" customWidth="1"/>
@@ -4005,47 +4207,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>0</v>
@@ -4076,85 +4278,85 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="378" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="369.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="I5" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="K5" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="44" t="s">
+      <c r="L5" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="M5" s="31" t="s">
         <v>222</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="369.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4173,10 +4375,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:J18"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4194,21 +4397,21 @@
     <col min="11" max="16384" width="11.5546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-    </row>
-    <row r="2" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -4240,514 +4443,517 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A3" s="32">
+    <row r="3" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <v>1</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <v>1</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>5</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <f>E3*F3</f>
         <v>5</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <f>G3</f>
         <v>5</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="33">
+      <c r="J3" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="97" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="33">
+      <c r="B4" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="32">
         <v>1</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>1</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>2</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <f t="shared" ref="G4:G9" si="0">E4*F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="32">
         <f t="shared" ref="H4:H10" si="1">G4</f>
         <v>2</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="32">
+      <c r="J4" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
         <v>3</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>1</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>1</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>5</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I5" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="I5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="32">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32">
+        <v>5</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D7" s="31">
         <v>1</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E7" s="31">
+        <v>3</v>
+      </c>
+      <c r="F7" s="31">
         <v>5</v>
       </c>
-      <c r="F6" s="33">
-        <v>5</v>
-      </c>
-      <c r="G6" s="33">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="H6" s="33">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A7" s="32">
-        <v>5</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="32">
-        <v>1</v>
-      </c>
-      <c r="E7" s="32">
-        <v>3</v>
-      </c>
-      <c r="F7" s="32">
-        <v>5</v>
-      </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="J7" s="31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A8" s="32">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+      <c r="E8" s="32">
+        <v>1</v>
+      </c>
+      <c r="F8" s="32">
+        <v>1</v>
+      </c>
+      <c r="G8" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D9" s="31">
         <v>1</v>
       </c>
-      <c r="E8" s="33">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33">
+      <c r="E9" s="31">
+        <v>2</v>
+      </c>
+      <c r="F9" s="31">
+        <v>4</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="31">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A10" s="32">
+        <v>8</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
         <v>5</v>
       </c>
-      <c r="G8" s="33">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H8" s="33">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A9" s="32">
-        <v>7</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="32">
-        <v>1</v>
-      </c>
-      <c r="E9" s="32">
-        <v>3</v>
-      </c>
-      <c r="F9" s="32">
-        <v>5</v>
-      </c>
-      <c r="G9" s="32">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H9" s="32">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
-        <v>8</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="33">
-        <v>1</v>
-      </c>
-      <c r="E10" s="33">
-        <v>5</v>
-      </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <v>2</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="32">
         <f>E10*F10</f>
         <v>10</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="32">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I10" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A11" s="32">
+      <c r="I10" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
         <v>9</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <v>1</v>
       </c>
-      <c r="E11" s="32">
-        <v>7</v>
-      </c>
-      <c r="F11" s="32">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="32">
+      <c r="E11" s="31">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31">
+        <v>5</v>
+      </c>
+      <c r="G11" s="31">
         <f t="shared" ref="G11:G18" si="2">E11*F11</f>
-        <v>-7</v>
-      </c>
-      <c r="H11" s="32">
+        <v>5</v>
+      </c>
+      <c r="H11" s="31">
         <f t="shared" ref="H11:H18" si="3">G11</f>
-        <v>-7</v>
-      </c>
-      <c r="I11" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="J11" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A12" s="32">
         <v>10</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1</v>
+      </c>
+      <c r="E12" s="32">
+        <v>5</v>
+      </c>
+      <c r="F12" s="32">
+        <v>5</v>
+      </c>
+      <c r="G12" s="32">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H12" s="32">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D13" s="31">
         <v>1</v>
       </c>
-      <c r="E12" s="33">
-        <v>9</v>
-      </c>
-      <c r="F12" s="33">
-        <v>-4</v>
-      </c>
-      <c r="G12" s="33">
+      <c r="E13" s="31">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31">
+        <v>5</v>
+      </c>
+      <c r="G13" s="31">
         <f t="shared" si="2"/>
-        <v>-36</v>
-      </c>
-      <c r="H12" s="33">
+        <v>5</v>
+      </c>
+      <c r="H13" s="31">
         <f t="shared" si="3"/>
-        <v>-36</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A13" s="32">
-        <v>11</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.3">
+      <c r="A14" s="32">
+        <v>12</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="32">
+        <v>1</v>
+      </c>
+      <c r="E14" s="32">
+        <v>1</v>
+      </c>
+      <c r="F14" s="32">
+        <v>5</v>
+      </c>
+      <c r="G14" s="32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="32">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D15" s="31">
         <v>1</v>
       </c>
-      <c r="E13" s="32">
-        <v>11</v>
-      </c>
-      <c r="F13" s="32">
-        <v>-7</v>
-      </c>
-      <c r="G13" s="32">
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="F15" s="31">
+        <v>1</v>
+      </c>
+      <c r="G15" s="31">
         <f t="shared" si="2"/>
-        <v>-77</v>
-      </c>
-      <c r="H13" s="32">
+        <v>1</v>
+      </c>
+      <c r="H15" s="31">
         <f t="shared" si="3"/>
-        <v>-77</v>
-      </c>
-      <c r="I13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="32">
+        <v>14</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1</v>
+      </c>
+      <c r="E16" s="32">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32">
+        <v>4</v>
+      </c>
+      <c r="G16" s="32">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H16" s="32">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>15</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="31">
+        <v>1</v>
+      </c>
+      <c r="E17" s="31">
+        <v>1</v>
+      </c>
+      <c r="F17" s="31">
+        <v>5</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H17" s="31">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I17" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
-        <v>12</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="33">
-        <v>1</v>
-      </c>
-      <c r="E14" s="33">
-        <v>13</v>
-      </c>
-      <c r="F14" s="33">
-        <v>-10</v>
-      </c>
-      <c r="G14" s="33">
-        <f t="shared" si="2"/>
-        <v>-130</v>
-      </c>
-      <c r="H14" s="33">
-        <f t="shared" si="3"/>
-        <v>-130</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A15" s="32">
-        <v>13</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="32">
-        <v>1</v>
-      </c>
-      <c r="E15" s="32">
-        <v>15</v>
-      </c>
-      <c r="F15" s="32">
-        <v>-13</v>
-      </c>
-      <c r="G15" s="32">
-        <f t="shared" si="2"/>
-        <v>-195</v>
-      </c>
-      <c r="H15" s="32">
-        <f t="shared" si="3"/>
-        <v>-195</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
-        <v>14</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="33">
-        <v>1</v>
-      </c>
-      <c r="E16" s="33">
-        <v>17</v>
-      </c>
-      <c r="F16" s="33">
-        <v>-16</v>
-      </c>
-      <c r="G16" s="33">
-        <f t="shared" si="2"/>
-        <v>-272</v>
-      </c>
-      <c r="H16" s="33">
-        <f t="shared" si="3"/>
-        <v>-272</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A17" s="32">
-        <v>15</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="32">
-        <v>1</v>
-      </c>
-      <c r="E17" s="32">
-        <v>19</v>
-      </c>
-      <c r="F17" s="32">
-        <v>-19</v>
-      </c>
-      <c r="G17" s="32">
-        <f t="shared" si="2"/>
-        <v>-361</v>
-      </c>
-      <c r="H17" s="32">
-        <f t="shared" si="3"/>
-        <v>-361</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>33</v>
+      <c r="J17" s="31" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="54" x14ac:dyDescent="0.3">
@@ -4755,33 +4961,33 @@
         <v>16</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>32</v>
+        <v>262</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="D18" s="32">
         <v>1</v>
       </c>
       <c r="E18" s="32">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F18" s="32">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="G18" s="32">
         <f t="shared" si="2"/>
-        <v>-462</v>
+        <v>3</v>
       </c>
       <c r="H18" s="32">
         <f t="shared" si="3"/>
-        <v>-462</v>
+        <v>3</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>33</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4798,7 +5004,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4807,10 +5014,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4828,21 +5036,21 @@
     <col min="11" max="16384" width="11.5546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-    </row>
-    <row r="2" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -4874,321 +5082,324 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A3" s="32">
+    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="32">
+      <c r="B3" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="31">
         <v>1</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <v>2</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>5</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <f>E3*F3</f>
         <v>10</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <f>G3</f>
         <v>10</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="33">
+      <c r="J3" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="97" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="32">
         <v>1</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>2</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>5</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <f t="shared" ref="G4" si="0">E4*F4</f>
         <v>10</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="32">
         <f t="shared" ref="H4:H10" si="1">G4</f>
         <v>10</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A5" s="32">
+      <c r="J4" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
         <v>3</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="32">
+      <c r="B5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="31">
         <v>1</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>3</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>5</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <f>E5*F5</f>
         <v>15</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <f>G5</f>
         <v>15</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="J5" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="32">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="32">
         <v>1</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>1</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="32">
         <v>3</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <f t="shared" ref="G6:G10" si="2">E6*F6</f>
         <v>3</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A7" s="32">
+      <c r="I6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="32">
+      <c r="B7" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="31">
         <v>1</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>4</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <v>5</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <f>G7</f>
         <v>20</v>
       </c>
-      <c r="I7" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="I7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A8" s="32">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="32">
         <v>1</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>2</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>3</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="32">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="32">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32">
+      <c r="J8" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
         <v>7</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="32">
+      <c r="B9" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="31">
         <v>1</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>1</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>5</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="J9" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A10" s="32">
         <v>8</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="32">
         <v>1</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>1</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <v>4</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="32">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="32">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I10" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="I10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
         <v>9</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="33">
+      <c r="B11" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="31">
         <v>1</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="31">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="31">
         <v>5</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="31">
         <f t="shared" ref="G11:G18" si="3">E11*F11</f>
         <v>1.666666666666665</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="31">
         <f t="shared" ref="H11:H18" si="4">G11</f>
         <v>1.666666666666665</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="J11" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>10</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="D12" s="32">
         <v>1</v>
@@ -5211,177 +5422,177 @@
         <v>22</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
         <v>11</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="33">
+      <c r="B13" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="31">
         <v>1</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="31">
         <v>-0.66666666666666696</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="31">
         <v>6</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="31">
         <f t="shared" si="3"/>
         <v>-4.0000000000000018</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="31">
         <f t="shared" si="4"/>
         <v>-4.0000000000000018</v>
       </c>
-      <c r="I13" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="I13" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A14" s="32">
         <v>12</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="32">
         <v>1</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>-1.1666666666666701</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <v>6.5</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="32">
         <f t="shared" si="3"/>
         <v>-7.5833333333333552</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="32">
         <f t="shared" si="4"/>
         <v>-7.5833333333333552</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A15" s="32">
+      <c r="J14" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
         <v>13</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="32">
+      <c r="B15" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="31">
         <v>1</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="31">
         <v>-1.6666666666666701</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="31">
         <v>7</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="31">
         <f t="shared" si="3"/>
         <v>-11.666666666666691</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="31">
         <f t="shared" si="4"/>
         <v>-11.666666666666691</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
+      <c r="J15" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A16" s="32">
         <v>14</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="32">
         <v>1</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <v>-2.1666666666666701</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="32">
         <v>7.5</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="32">
         <f t="shared" si="3"/>
         <v>-16.250000000000025</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="32">
         <f t="shared" si="4"/>
         <v>-16.250000000000025</v>
       </c>
-      <c r="I16" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>134</v>
+      <c r="I16" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
+      <c r="A17" s="31">
         <v>15</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="33">
+      <c r="B17" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="31">
         <v>1</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="31">
         <v>-2.6666666666666701</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="31">
         <v>8</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="31">
         <f t="shared" si="3"/>
         <v>-21.333333333333361</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="31">
         <f t="shared" si="4"/>
         <v>-21.333333333333361</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="33" t="s">
-        <v>130</v>
+      <c r="J17" s="31" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -5389,10 +5600,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="D18" s="32">
         <v>1</v>
@@ -5415,7 +5626,7 @@
         <v>22</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5441,11 +5652,9 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5454,296 +5663,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>38</v>
+      <c r="A1" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11" t="s">
+        <v>225</v>
+      </c>
       <c r="B4" s="15" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>229</v>
+      </c>
       <c r="B6" s="16"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="19"/>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>102</v>
-      </c>
+      <c r="A8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="19"/>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>121</v>
-      </c>
+      <c r="A15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="19"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="19"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>103</v>
-      </c>
+      <c r="B22" s="19"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="17" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="19"/>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>104</v>
-      </c>
+      <c r="A29" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="19"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="19"/>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="A36" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="19"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="76" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5757,9 +5986,7 @@
   </sheetPr>
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:B52"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5768,39 +5995,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>105</v>
+      <c r="A1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="20" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="20" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5809,45 +6036,45 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B7" s="19"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>12</v>
@@ -5859,45 +6086,45 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B14" s="19"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>13</v>
@@ -5909,45 +6136,45 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B21" s="19"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>12</v>
@@ -5959,45 +6186,45 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B28" s="19"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>12</v>
@@ -6009,45 +6236,45 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B35" s="19"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>13</v>
@@ -6059,45 +6286,45 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B42" s="19"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>12</v>
@@ -6105,30 +6332,30 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="15" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="15" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6137,45 +6364,45 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B53" s="14"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>12</v>
@@ -6187,45 +6414,45 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B60" s="19"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>12</v>
@@ -6237,45 +6464,45 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B67" s="19"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B72" s="17" t="s">
         <v>12</v>
@@ -6287,45 +6514,45 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B74" s="19"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>12</v>
@@ -6337,45 +6564,45 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B81" s="19"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>12</v>
@@ -6387,45 +6614,45 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B88" s="19"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B93" s="21" t="s">
         <v>13</v>
@@ -6441,216 +6668,282 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="5"/>
+    <col min="1" max="1" width="36.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="58.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="58.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="58.88671875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-    </row>
-    <row r="2" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="96"/>
+    </row>
+    <row r="2" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="79"/>
+      <c r="G2" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="79"/>
+    </row>
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.3">
+      <c r="A3" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="84"/>
+      <c r="G5" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="85"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="86"/>
+    </row>
+    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B8" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="87"/>
+      <c r="D8" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="87"/>
+      <c r="G8" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="87"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="88" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="55"/>
+      <c r="I9" s="89"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="E2" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="56"/>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="57"/>
-    </row>
-    <row r="6" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-    </row>
-    <row r="7" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-    </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="93"/>
+    </row>
+    <row r="13" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="63"/>
-    </row>
-    <row r="9" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-    </row>
-    <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-    </row>
-    <row r="11" spans="1:5" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="37"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-    </row>
-    <row r="13" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="55"/>
-    </row>
-    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="57"/>
-    </row>
-    <row r="17" spans="1:3" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-    </row>
-    <row r="18" spans="1:3" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-    </row>
-    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="63"/>
-    </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-    </row>
-    <row r="21" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-    </row>
-    <row r="22" spans="1:3" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-    </row>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+    </row>
+    <row r="16" spans="1:9" ht="55.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="88.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="88.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="36.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
+  <mergeCells count="20">
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H5:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E5:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B5:C7"/>
     <mergeCell ref="A9:C9"/>
@@ -6668,313 +6961,380 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A18"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="5"/>
-    <col min="5" max="5" width="61.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="5"/>
+    <col min="1" max="1" width="36.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="58.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31" style="5" customWidth="1"/>
+    <col min="6" max="6" width="58.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="58.88671875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="96"/>
+    </row>
+    <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="79"/>
+      <c r="G2" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="79"/>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.3">
+      <c r="A3" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A4" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="84"/>
+      <c r="G5" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="85"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="86"/>
+    </row>
+    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.3">
+      <c r="A8" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="87"/>
+      <c r="D8" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="87"/>
+      <c r="G8" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" s="87"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="55"/>
+      <c r="I9" s="89"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="56"/>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-    </row>
-    <row r="2" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="E2" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="93"/>
+    </row>
+    <row r="13" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+    </row>
+    <row r="16" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" ht="83.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:3" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="66" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="57"/>
-    </row>
-    <row r="6" spans="1:5" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-    </row>
-    <row r="7" spans="1:5" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-    </row>
-    <row r="8" spans="1:5" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="63"/>
-    </row>
-    <row r="9" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-    </row>
-    <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-    </row>
-    <row r="11" spans="1:5" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-    </row>
-    <row r="13" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="55"/>
-    </row>
-    <row r="14" spans="1:5" ht="108" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="57"/>
-    </row>
-    <row r="17" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-    </row>
-    <row r="18" spans="1:3" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-    </row>
-    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="63"/>
-    </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-    </row>
-    <row r="21" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-    </row>
-    <row r="22" spans="1:3" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-    </row>
-    <row r="23" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="76"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="80"/>
+      <c r="C24" s="67"/>
     </row>
     <row r="25" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="81" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="82"/>
+        <v>154</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="69"/>
     </row>
     <row r="28" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
+        <v>144</v>
+      </c>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
     </row>
     <row r="29" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="75"/>
+        <v>143</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="62"/>
     </row>
     <row r="30" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B30" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="C30" s="72"/>
+        <v>186</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="59"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="86" t="s">
-        <v>200</v>
-      </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
+      <c r="A31" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="74"/>
+      <c r="C31" s="75"/>
     </row>
     <row r="32" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="72"/>
+      <c r="A32" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
     </row>
     <row r="33" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
+      <c r="A33" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="27">
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="G11:I11"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B27:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E5:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H5:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B5:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -6992,65 +7352,63 @@
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="220.33203125" style="30" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="30"/>
+    <col min="1" max="1" width="220.33203125" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
-        <v>212</v>
+      <c r="A1" s="40" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
+      <c r="A2" s="30"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
-        <v>204</v>
+      <c r="A3" s="36" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
-        <v>205</v>
+      <c r="A4" s="37" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
-        <v>206</v>
+      <c r="A5" s="36" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
-        <v>207</v>
+      <c r="A6" s="37" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
-        <v>208</v>
+      <c r="A7" s="36" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
-        <v>209</v>
+      <c r="A8" s="37" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="40" t="s">
-        <v>210</v>
+      <c r="A9" s="38" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="41"/>
+      <c r="A10" s="39"/>
     </row>
     <row r="11" spans="1:1" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="43" t="s">
-        <v>211</v>
+      <c r="A11" s="41" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/PlanDePruebasRiesgosCasosDePrueba.xlsx
+++ b/PlanDePruebasRiesgosCasosDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sofka\Training\Duras\Repos\C1-2023-QA-Calidad-RF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65973B75-DF4A-495F-80BF-860F2F0590FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8853B655-8A16-4009-A049-40997D020B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="893" xr2:uid="{AF02FBB8-0A87-4B34-9297-94FCF679C14E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="280">
   <si>
     <t>Plan de Calidad</t>
   </si>
@@ -120,12 +120,6 @@
     <t>Contener</t>
   </si>
   <si>
-    <t>Se registra un usuario con contraseña vacía.</t>
-  </si>
-  <si>
-    <t>Realizar una correcta definición de las reglas para la aceptación de una contraseña como válida.</t>
-  </si>
-  <si>
     <t>Transferir</t>
   </si>
   <si>
@@ -378,40 +372,13 @@
     <t>Método Gherkin:</t>
   </si>
   <si>
-    <t>Fallo del servicio de registro.</t>
-  </si>
-  <si>
-    <t>Fallo del servicio de ingreso.</t>
-  </si>
-  <si>
     <t>Realizar cambio de función del botón en front-end.</t>
   </si>
   <si>
-    <t>El botón de ingreso no funciona.</t>
-  </si>
-  <si>
-    <t>Falta de recursos para el host de la página.</t>
-  </si>
-  <si>
-    <t>Se transfiere la responsabilidad al PO debido a que es un tema económico.</t>
-  </si>
-  <si>
     <t>Los mensajes de error contienen caracteres ilegibles</t>
   </si>
   <si>
     <t>Monitorear la ortografía de los recursos a mostrar en el front-end.</t>
-  </si>
-  <si>
-    <t>Las URL no direccionan donde deberían.</t>
-  </si>
-  <si>
-    <t>Es una característica de la que se encarga el proveedor del host.</t>
-  </si>
-  <si>
-    <t>El botón de crear usuario se bloquea al darle un primer clic.</t>
-  </si>
-  <si>
-    <t>Realizar un control en la función del botón con respecto a la conexión con la BD de usuarios.</t>
   </si>
   <si>
     <t>@MensajeConfirmación</t>
@@ -1944,19 +1911,10 @@
     <t>Responsable Calidad</t>
   </si>
   <si>
-    <t>Analista de Certificación</t>
-  </si>
-  <si>
     <t>Área 1</t>
   </si>
   <si>
     <t>Célula 1</t>
-  </si>
-  <si>
-    <t>Externo</t>
-  </si>
-  <si>
-    <t>Estudiante de SofkaU</t>
   </si>
   <si>
     <t>Célula 2</t>
@@ -2231,6 +2189,96 @@
   </si>
   <si>
     <t>Solicitar la definición WSDL actualizada para el servicio en cuestión.</t>
+  </si>
+  <si>
+    <t>El host de la página se cae</t>
+  </si>
+  <si>
+    <t>Cambiar rápidamente de proveedor de host.</t>
+  </si>
+  <si>
+    <t>La barra de selección de productos está desplazada</t>
+  </si>
+  <si>
+    <t>Hacer que el contenedor de la barra de productos sea adaptable.</t>
+  </si>
+  <si>
+    <t>Se agota el recurso monetario.</t>
+  </si>
+  <si>
+    <t>Informar al PO para evaluar la situación</t>
+  </si>
+  <si>
+    <t>Se porhibe por ley la venta de gaseosas</t>
+  </si>
+  <si>
+    <t>Se elimina la sección de bebidas mientras se realiza un plan de acción desde el área legal de la empresa.</t>
+  </si>
+  <si>
+    <t>Papa John's limita el acceso por no finalizar las compras</t>
+  </si>
+  <si>
+    <t>Se utiliza una cuenta diferente.</t>
+  </si>
+  <si>
+    <t>El usuario no quiere tantos pasos para realizar una compra</t>
+  </si>
+  <si>
+    <t>Informar al PO para que se haga una claridad con respecto a los requerimientos.</t>
+  </si>
+  <si>
+    <t>Jonathan Vargas</t>
+  </si>
+  <si>
+    <t>Falta de experiencia del QA</t>
+  </si>
+  <si>
+    <t>Estudiar más el ISTQB.</t>
+  </si>
+  <si>
+    <t>La estimación de tiempo inicial no se cumple</t>
+  </si>
+  <si>
+    <t>Agilizar la ejecución de pruebas y la escritura de los documentos restantes.</t>
+  </si>
+  <si>
+    <t>Conflictos entre el personal de QA y el PO por falta de actitud de los dos</t>
+  </si>
+  <si>
+    <t>La presentación inicial de ambos equipos, capacitaciones y charlas de motivación y actitud Sofka.</t>
+  </si>
+  <si>
+    <t>El botón de agregar al carro no funciona.</t>
+  </si>
+  <si>
+    <t>Los ingredientes y/o productos en el carro no coinciden con los seleccionados por el cliente</t>
+  </si>
+  <si>
+    <t>Realizar un control en la manera cómo se transfieren los datos de un sistema a otro (del sistema de selección de ingredientes al sistema carro).</t>
+  </si>
+  <si>
+    <t>Las imágenes de los productos se intercambian</t>
+  </si>
+  <si>
+    <t>Informar al personal de desarrollo para que se cambien las fuentes de las imágenes respecto al objeto en el front-end.</t>
+  </si>
+  <si>
+    <t>El botón de editar elimina el producto</t>
+  </si>
+  <si>
+    <t>El cliente puede volver a agregar el mismo producto con los ingredientes deseados.</t>
+  </si>
+  <si>
+    <t>Los productos en el carrito se eliminan al navegar por la página</t>
+  </si>
+  <si>
+    <t>Realizar un control en la persistencia del sistema de carrito.</t>
+  </si>
+  <si>
+    <t>Los productos no favoritos no se pueden agregar al carrito</t>
+  </si>
+  <si>
+    <t>Realizar un control en la funcionalidad de productos favoritos y su relación con el sistema de carrito.</t>
   </si>
 </sst>
 </file>
@@ -3075,7 +3123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3349,6 +3397,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3700,13 +3751,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>463018</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>8964</xdr:rowOff>
@@ -3828,8 +3879,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4182,11 +4233,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:M1"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4194,19 +4245,18 @@
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.44140625" customWidth="1"/>
-    <col min="10" max="10" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.44140625" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -4219,9 +4269,8 @@
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-    </row>
-    <row r="2" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -4234,135 +4283,125 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
       <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-    </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="378" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="369.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F5" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="G5" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="378" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="H5" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="I5" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="J5" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="369.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="31" t="s">
+      <c r="L5" s="31" t="s">
         <v>208</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4399,7 +4438,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -4448,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>21</v>
@@ -4474,10 +4513,10 @@
         <v>23</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L3" s="97" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -4485,10 +4524,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" s="32">
         <v>1</v>
@@ -4511,7 +4550,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -4519,7 +4558,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>21</v>
@@ -4545,7 +4584,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.3">
@@ -4553,10 +4592,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" s="32">
         <v>1</v>
@@ -4579,7 +4618,7 @@
         <v>23</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -4587,7 +4626,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>21</v>
@@ -4613,7 +4652,7 @@
         <v>23</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -4621,10 +4660,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" s="32">
         <v>1</v>
@@ -4647,7 +4686,7 @@
         <v>24</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -4655,7 +4694,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>21</v>
@@ -4681,7 +4720,7 @@
         <v>23</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="36" x14ac:dyDescent="0.3">
@@ -4689,10 +4728,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" s="32">
         <v>1</v>
@@ -4712,10 +4751,10 @@
         <v>10</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -4723,7 +4762,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>21</v>
@@ -4749,7 +4788,7 @@
         <v>23</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -4757,10 +4796,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" s="32">
         <v>1</v>
@@ -4780,10 +4819,10 @@
         <v>25</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -4791,7 +4830,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>21</v>
@@ -4817,7 +4856,7 @@
         <v>23</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.3">
@@ -4825,10 +4864,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="32">
         <v>1</v>
@@ -4851,7 +4890,7 @@
         <v>22</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -4859,7 +4898,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>21</v>
@@ -4885,7 +4924,7 @@
         <v>24</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
@@ -4893,10 +4932,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D16" s="32">
         <v>1</v>
@@ -4916,10 +4955,10 @@
         <v>4</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.3">
@@ -4927,7 +4966,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>21</v>
@@ -4953,7 +4992,7 @@
         <v>23</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="54" x14ac:dyDescent="0.3">
@@ -4961,10 +5000,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" s="32">
         <v>1</v>
@@ -4987,7 +5026,7 @@
         <v>24</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5038,7 +5077,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -5087,44 +5126,44 @@
         <v>1</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3" s="31">
         <v>1</v>
       </c>
       <c r="E3" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="31">
         <v>5</v>
       </c>
       <c r="G3" s="31">
         <f>E3*F3</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3" s="31">
         <f>G3</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c r="L3" s="97" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="32">
         <v>2</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>21</v>
@@ -5133,58 +5172,58 @@
         <v>1</v>
       </c>
       <c r="E4" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="32">
         <f t="shared" ref="G4" si="0">E4*F4</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="32">
         <f t="shared" ref="H4:H10" si="1">G4</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="31">
         <v>1</v>
       </c>
       <c r="E5" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="31">
         <v>5</v>
       </c>
       <c r="G5" s="31">
         <f>E5*F5</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H5" s="31">
         <f>G5</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.3">
@@ -5192,7 +5231,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>21</v>
@@ -5204,55 +5243,55 @@
         <v>1</v>
       </c>
       <c r="F6" s="32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" s="32">
         <f t="shared" ref="G6:G10" si="2">E6*F6</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" s="32">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>5</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="31">
         <v>1</v>
       </c>
       <c r="E7" s="31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="31">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H7" s="31">
         <f>G7</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>116</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -5260,7 +5299,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>21</v>
@@ -5286,7 +5325,7 @@
         <v>23</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -5294,10 +5333,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>119</v>
+        <v>258</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" s="31">
         <v>1</v>
@@ -5306,29 +5345,29 @@
         <v>1</v>
       </c>
       <c r="F9" s="31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="31">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" s="31">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>8</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>121</v>
+        <v>270</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>21</v>
@@ -5340,21 +5379,21 @@
         <v>1</v>
       </c>
       <c r="F10" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="32">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="32">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="32" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>122</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -5362,41 +5401,41 @@
         <v>9</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="31">
         <v>1</v>
       </c>
       <c r="E11" s="31">
-        <v>0.33333333333333298</v>
+        <v>4</v>
       </c>
       <c r="F11" s="31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" s="31">
         <f t="shared" ref="G11:G18" si="3">E11*F11</f>
-        <v>1.666666666666665</v>
+        <v>12</v>
       </c>
       <c r="H11" s="31">
         <f t="shared" ref="H11:H18" si="4">G11</f>
-        <v>1.666666666666665</v>
+        <v>12</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>10</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>21</v>
@@ -5405,58 +5444,58 @@
         <v>1</v>
       </c>
       <c r="E12" s="32">
-        <v>-0.16666666666666699</v>
+        <v>1</v>
       </c>
       <c r="F12" s="32">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G12" s="32">
         <f t="shared" si="3"/>
-        <v>-0.91666666666666841</v>
+        <v>2</v>
       </c>
       <c r="H12" s="32">
         <f t="shared" si="4"/>
-        <v>-0.91666666666666841</v>
+        <v>2</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>11</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13" s="31">
         <v>1</v>
       </c>
       <c r="E13" s="31">
-        <v>-0.66666666666666696</v>
+        <v>5</v>
       </c>
       <c r="F13" s="31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="31">
         <f t="shared" si="3"/>
-        <v>-4.0000000000000018</v>
+        <v>25</v>
       </c>
       <c r="H13" s="31">
         <f t="shared" si="4"/>
-        <v>-4.0000000000000018</v>
+        <v>25</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -5464,7 +5503,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>117</v>
+        <v>274</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>21</v>
@@ -5473,58 +5512,58 @@
         <v>1</v>
       </c>
       <c r="E14" s="32">
-        <v>-1.1666666666666701</v>
+        <v>1</v>
       </c>
       <c r="F14" s="32">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="G14" s="32">
         <f t="shared" si="3"/>
-        <v>-7.5833333333333552</v>
+        <v>1</v>
       </c>
       <c r="H14" s="32">
         <f t="shared" si="4"/>
-        <v>-7.5833333333333552</v>
+        <v>1</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>13</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>119</v>
+        <v>265</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" s="31">
         <v>1</v>
       </c>
       <c r="E15" s="31">
-        <v>-1.6666666666666701</v>
+        <v>5</v>
       </c>
       <c r="F15" s="31">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G15" s="31">
         <f t="shared" si="3"/>
-        <v>-11.666666666666691</v>
+        <v>15</v>
       </c>
       <c r="H15" s="31">
         <f t="shared" si="4"/>
-        <v>-11.666666666666691</v>
+        <v>15</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>120</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="54" x14ac:dyDescent="0.3">
@@ -5532,7 +5571,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>21</v>
@@ -5541,66 +5580,66 @@
         <v>1</v>
       </c>
       <c r="E16" s="32">
-        <v>-2.1666666666666701</v>
+        <v>1</v>
       </c>
       <c r="F16" s="32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G16" s="32">
         <f t="shared" si="3"/>
-        <v>-16.250000000000025</v>
+        <v>5</v>
       </c>
       <c r="H16" s="32">
         <f t="shared" si="4"/>
-        <v>-16.250000000000025</v>
+        <v>5</v>
       </c>
       <c r="I16" s="32" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="54" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>15</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>117</v>
+        <v>267</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D17" s="31">
         <v>1</v>
       </c>
       <c r="E17" s="31">
-        <v>-2.6666666666666701</v>
+        <v>3</v>
       </c>
       <c r="F17" s="31">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G17" s="31">
         <f t="shared" si="3"/>
-        <v>-21.333333333333361</v>
+        <v>9</v>
       </c>
       <c r="H17" s="31">
         <f t="shared" si="4"/>
-        <v>-21.333333333333361</v>
+        <v>9</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>16</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>119</v>
+        <v>278</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>21</v>
@@ -5609,24 +5648,24 @@
         <v>1</v>
       </c>
       <c r="E18" s="32">
-        <v>-3.1666666666666701</v>
+        <v>2</v>
       </c>
       <c r="F18" s="32">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="G18" s="32">
         <f t="shared" si="3"/>
-        <v>-26.916666666666696</v>
+        <v>10</v>
       </c>
       <c r="H18" s="32">
         <f t="shared" si="4"/>
-        <v>-26.916666666666696</v>
+        <v>10</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>120</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5664,45 +5703,45 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B6" s="16"/>
     </row>
@@ -5712,45 +5751,45 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>12</v>
@@ -5762,45 +5801,45 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="19"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>12</v>
@@ -5812,45 +5851,45 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="19"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>12</v>
@@ -5862,45 +5901,45 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="19"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>12</v>
@@ -5912,57 +5951,57 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="19"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B41" s="15"/>
     </row>
     <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="76" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>13</v>
@@ -5996,38 +6035,38 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6036,45 +6075,45 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="19"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>12</v>
@@ -6086,45 +6125,45 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B14" s="19"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>13</v>
@@ -6136,45 +6175,45 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="19"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>12</v>
@@ -6186,45 +6225,45 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" s="19"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>12</v>
@@ -6236,45 +6275,45 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B35" s="19"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>13</v>
@@ -6286,45 +6325,45 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B42" s="19"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>12</v>
@@ -6332,30 +6371,30 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6364,45 +6403,45 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B53" s="14"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>12</v>
@@ -6414,45 +6453,45 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B60" s="19"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>12</v>
@@ -6464,45 +6503,45 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B67" s="19"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B72" s="17" t="s">
         <v>12</v>
@@ -6514,45 +6553,45 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B74" s="19"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>12</v>
@@ -6564,45 +6603,45 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B81" s="19"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>12</v>
@@ -6614,45 +6653,45 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B88" s="19"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B93" s="21" t="s">
         <v>13</v>
@@ -6672,7 +6711,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -6691,7 +6730,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -6704,212 +6743,212 @@
     </row>
     <row r="2" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C2" s="79"/>
       <c r="D2" s="78" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F2" s="79"/>
       <c r="G2" s="78" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.3">
       <c r="A3" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>138</v>
+        <v>125</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>142</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F3" s="81" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I3" s="81" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="82" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F4" s="83" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G4" s="82" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I4" s="83" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="80" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F5" s="84"/>
       <c r="G5" s="80" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I5" s="84"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="85"/>
       <c r="D6" s="82" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E6" s="52"/>
       <c r="F6" s="85"/>
       <c r="G6" s="82" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="85"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="80" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="86"/>
       <c r="D7" s="80" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="86"/>
       <c r="G7" s="80" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H7" s="53"/>
       <c r="I7" s="86"/>
     </row>
     <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="82" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C8" s="87"/>
       <c r="D8" s="82" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="82" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I8" s="87"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="88" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="89"/>
       <c r="D9" s="88" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E9" s="55"/>
       <c r="F9" s="89"/>
       <c r="G9" s="88" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="89"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="90" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B10" s="56"/>
       <c r="C10" s="91"/>
       <c r="D10" s="90" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="91"/>
       <c r="G10" s="90" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="91"/>
     </row>
     <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="92" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="93"/>
       <c r="D11" s="92" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="93"/>
       <c r="G11" s="92" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="93"/>
@@ -6917,7 +6956,7 @@
     <row r="13" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="94" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
@@ -6965,7 +7004,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -6984,7 +7023,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -6997,212 +7036,212 @@
     </row>
     <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C2" s="79"/>
       <c r="D2" s="78" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F2" s="79"/>
       <c r="G2" s="78" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.3">
       <c r="A3" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>138</v>
+        <v>125</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>142</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F3" s="81" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I3" s="81" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="82" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F4" s="83" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G4" s="82" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I4" s="83" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="80" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F5" s="84"/>
       <c r="G5" s="80" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="I5" s="84"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="85"/>
       <c r="D6" s="82" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E6" s="52"/>
       <c r="F6" s="85"/>
       <c r="G6" s="82" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="85"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="80" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="86"/>
       <c r="D7" s="80" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="86"/>
       <c r="G7" s="80" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H7" s="53"/>
       <c r="I7" s="86"/>
     </row>
     <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.3">
       <c r="A8" s="82" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C8" s="87"/>
       <c r="D8" s="82" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="82" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="I8" s="87"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="88" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="89"/>
       <c r="D9" s="88" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E9" s="55"/>
       <c r="F9" s="89"/>
       <c r="G9" s="88" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="89"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="90" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B10" s="56"/>
       <c r="C10" s="91"/>
       <c r="D10" s="90" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="91"/>
       <c r="G10" s="90" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="91"/>
     </row>
     <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="92" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="93"/>
       <c r="D11" s="92" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="93"/>
       <c r="G11" s="92" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="93"/>
@@ -7210,7 +7249,7 @@
     <row r="13" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="94" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
@@ -7228,84 +7267,84 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C24" s="67"/>
     </row>
     <row r="25" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B27" s="68" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C27" s="69"/>
     </row>
     <row r="28" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B28" s="70"/>
       <c r="C28" s="71"/>
     </row>
     <row r="29" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B29" s="60"/>
       <c r="C29" s="62"/>
     </row>
     <row r="30" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B30" s="72" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C30" s="59"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="73" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B31" s="74"/>
       <c r="C31" s="75"/>
     </row>
     <row r="32" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="57" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B32" s="58"/>
       <c r="C32" s="59"/>
     </row>
     <row r="33" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="60" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B33" s="61"/>
       <c r="C33" s="62"/>
@@ -7362,7 +7401,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="40" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -7370,37 +7409,37 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="38" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -7408,7 +7447,7 @@
     </row>
     <row r="11" spans="1:1" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/PlanDePruebasRiesgosCasosDePrueba.xlsx
+++ b/PlanDePruebasRiesgosCasosDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sofka\Training\Duras\Repos\C1-2023-QA-Calidad-RF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8853B655-8A16-4009-A049-40997D020B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF816365-6FFC-41A4-8E66-A2DCBCB6EC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="893" xr2:uid="{AF02FBB8-0A87-4B34-9297-94FCF679C14E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="295">
   <si>
     <t>Plan de Calidad</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Pasó</t>
   </si>
   <si>
-    <t>No pasó</t>
-  </si>
-  <si>
     <t>Impacto</t>
   </si>
   <si>
@@ -123,30 +120,12 @@
     <t>Transferir</t>
   </si>
   <si>
-    <t>Metodo Gherkin:</t>
-  </si>
-  <si>
-    <t>POST REGISTER SUCCESSFUL</t>
-  </si>
-  <si>
-    <t>Feature:</t>
-  </si>
-  <si>
-    <t>Registrar usuarios</t>
-  </si>
-  <si>
-    <t>Descripcion:</t>
-  </si>
-  <si>
     <t>Yo como usuario de la plataforma</t>
   </si>
   <si>
     <t>Quiero registrarme</t>
   </si>
   <si>
-    <t>Para poder loguearme en la plataforma</t>
-  </si>
-  <si>
     <t>@RegistroIndefinido</t>
   </si>
   <si>
@@ -201,162 +180,12 @@
     <t>debera recibir un mensaje de error "email faltante"</t>
   </si>
   <si>
-    <t>@RegistroExitoso</t>
-  </si>
-  <si>
-    <t>ingresa datos de registros definidos</t>
-  </si>
-  <si>
-    <t>Recibira un id y un token de registro</t>
-  </si>
-  <si>
-    <t>Registro de usuarios</t>
-  </si>
-  <si>
-    <t>Yo como usuario de la pagina web de la tienda cereza</t>
-  </si>
-  <si>
-    <t>Para poder loguearme en la pagina web</t>
-  </si>
-  <si>
-    <t>@CamposObligatorios</t>
-  </si>
-  <si>
-    <t>que esta en la seccion de registro de la pagina web de la tienda cereza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intenta relizar un registro sin llenar los campos obligatorios </t>
-  </si>
-  <si>
-    <t>debera recibir un mensaje de error "Los campos de email y password son obligatorios"</t>
-  </si>
-  <si>
-    <t>@CamposNoObligatorios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intenta relizar un registro sin llenar los no campos obligatorios </t>
-  </si>
-  <si>
-    <t>debera  recibir un correo para confirmar el registro a la tienda</t>
-  </si>
-  <si>
-    <t>@UsarioYaRegistrado</t>
-  </si>
-  <si>
-    <t>intenta realizar el registro con un email ya registrado</t>
-  </si>
-  <si>
-    <t>debera recibir un mensaje de error "Esta dirección de e‑mail ya ha sido asociada con una cuenta"</t>
-  </si>
-  <si>
-    <t>@PasswordMinimo</t>
-  </si>
-  <si>
-    <t>intenta realizar el registro con un password de menos de 5 caracteres</t>
-  </si>
-  <si>
-    <t>debera recibir un mensaje de error "El password debe contener minimo 5 caracteres"</t>
-  </si>
-  <si>
-    <t>Inicio de Sesión</t>
-  </si>
-  <si>
-    <t>Yo como usuario registrado de la pagina web de la tienda cereza</t>
-  </si>
-  <si>
-    <t>Quiero poder inciar sesión</t>
-  </si>
-  <si>
-    <t>Para poder realizar la compra de productos</t>
-  </si>
-  <si>
-    <t>@PasswordVacio</t>
-  </si>
-  <si>
-    <t>que esta en la seccion de inicio de sesion de la pagina web de la tienda cereza</t>
-  </si>
-  <si>
-    <t>intenta iniciar sesión sin contraseña</t>
-  </si>
-  <si>
-    <t>debera recibir un mensaje de error "password requerido"</t>
-  </si>
-  <si>
-    <t>@EmailVacio</t>
-  </si>
-  <si>
-    <t>intenta iniciar sesión sin email</t>
-  </si>
-  <si>
-    <t>debera recibir un mensaje de error "email requerido"</t>
-  </si>
-  <si>
-    <t>@LoginExitoso</t>
-  </si>
-  <si>
-    <t>ingresa credenciales validas</t>
-  </si>
-  <si>
-    <t>debera redireccionarse al home page</t>
-  </si>
-  <si>
-    <t>@UsuarioNoRegistrado</t>
-  </si>
-  <si>
-    <t>ingresa credenciales no registradas</t>
-  </si>
-  <si>
-    <t>debera recibir un mensaje de error "el usuario no existe"</t>
-  </si>
-  <si>
-    <t>@PasswordIncorrecto</t>
-  </si>
-  <si>
-    <t>ingresa un password incorrecto</t>
-  </si>
-  <si>
-    <t>debera recibir un mensaje de error "contraseña incorrecta"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> verificar que solo usuarios definidos puedan registrarse</t>
   </si>
   <si>
     <t>verificar la vizualicion del mensaje de error cuando el campo email esta vacio</t>
   </si>
   <si>
-    <t>verificar que los usuarios definidos puedan registrarse</t>
-  </si>
-  <si>
-    <t>PÁGINA WEB TIENDA CEREZA</t>
-  </si>
-  <si>
-    <t>verificar el mensaje de error al ingresar un password incorrecto</t>
-  </si>
-  <si>
-    <t>verificar que se solicite de manera obligatoria los campos de correo y password en el formulario de registro</t>
-  </si>
-  <si>
-    <t>verificar que el usuario se pueda registrar sin llenar los campos de nombre y apellido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verificar que se puedan registrar solo usuarios que aun no estan registrados </t>
-  </si>
-  <si>
-    <t>verificar que el password ingresado contenga minimo 5 caracteres</t>
-  </si>
-  <si>
-    <t>verificar el mensaje de error al intentar iniciar sesión en la pagina sin password</t>
-  </si>
-  <si>
-    <t>verificar el mensaje de error al intentar iniciar sesión en la pagina sin email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verificar el ingreso satisfactorio a la tienda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">verificar el mensaje de error al intentar ingresar con credenciales no registradas </t>
-  </si>
-  <si>
     <t>Monitoreo constante de los servicios.</t>
   </si>
   <si>
@@ -369,9 +198,6 @@
     <t>verificar la visualización del mensaje de error cuando el campo password esta vacío</t>
   </si>
   <si>
-    <t>Método Gherkin:</t>
-  </si>
-  <si>
     <t>Realizar cambio de función del botón en front-end.</t>
   </si>
   <si>
@@ -379,42 +205,6 @@
   </si>
   <si>
     <t>Monitorear la ortografía de los recursos a mostrar en el front-end.</t>
-  </si>
-  <si>
-    <t>@MensajeConfirmación</t>
-  </si>
-  <si>
-    <t>verificar la visualización del mensaje informando envío de correo de confirmación</t>
-  </si>
-  <si>
-    <t>se registra con los campos obligatorios</t>
-  </si>
-  <si>
-    <t>debera  recibir un mensaje informando el envío de un correo de confirmación del registro a la tienda</t>
-  </si>
-  <si>
-    <t>ingresa un password incorrecto más de 5 veces</t>
-  </si>
-  <si>
-    <t>@LímiteIngresosFallidos</t>
-  </si>
-  <si>
-    <t>verificar que exista un límite de 5 intentos fallidos al ingresar un password incorrecto</t>
-  </si>
-  <si>
-    <t>debera recibir un mensaje de error informando el bloqueo temporal de la cuenta</t>
-  </si>
-  <si>
-    <t>verificar que el password no contenga información personal</t>
-  </si>
-  <si>
-    <t>intenta realizar un registro con una contraseña que contiene información personal</t>
-  </si>
-  <si>
-    <t>debera recibir un mensaje de error "Contraseña débil o insegura, no use información personal"</t>
-  </si>
-  <si>
-    <t>@PasswordInseguro</t>
   </si>
   <si>
     <r>
@@ -913,38 +703,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Historial:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Jonathan Vargas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -&gt; (Por hacer)</t>
     </r>
   </si>
   <si>
@@ -1957,30 +1715,6 @@
     <t>El plan de prueba abarca la ejecución de las pruebas funcionales para el flujo de compra completo de una pizza, papadia, acompañamiento, postre, bebida o combo en el canal: https://www.domiciliospapajohns.com.co/ para verificar que cada paso involucrado en este proceso funcione correctamente.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">No hace parte del alcance:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>No es objeto del plan de prueba la verificación de funcionalidades que no hagan parte del flujo de compra y pago de alguno de los alimentos o bebidas mencionados en la descripción del presente plan.
-Tampoco se tendrán en cuenta pruebas de seguridad, rendimiento o estrés.</t>
-    </r>
-  </si>
-  <si>
     <t>Tener una cuenta válida en la página de domicilios de Papa John´s.</t>
   </si>
   <si>
@@ -2019,29 +1753,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>No hace parte del alcance:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-No es objeto del plan de prueba la verificación de funcionalidades que no hagan parte de los servicios de conversión de moneda y tasa de cambio.
-Tampoco se tendrán en cuenta pruebas de seguridad, rendimiento y estrés.</t>
-    </r>
-  </si>
-  <si>
     <t>Las actividades descritas en el alcance se realizarán en el transcurso del 4 de marzo en las horas de 09:00 AM a 05:00 PM.</t>
   </si>
   <si>
@@ -2063,25 +1774,6 @@
 Se probará la petición de conversión de moneda, realizando cambios válidos y no válidos en el campo Amount.
 Se realizará una comprobación de las respuestas recibidas por los servicios.
 Todas las pruebas serán ejecutadas manualmente, y como no se conoce el funcionamiento interno de los servicios de conversión de moneda y tasa de cambio, todas las estrategias de prueba serán de caja negra.</t>
-  </si>
-  <si>
-    <t>As:</t>
-  </si>
-  <si>
-    <t>I want:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenario Outline: </t>
-  </si>
-  <si>
-    <t>Examples:</t>
-  </si>
-  <si>
-    <t>||
-||</t>
-  </si>
-  <si>
-    <t>Background:</t>
   </si>
   <si>
     <t xml:space="preserve">Se probará la respuesta de los diferentes botones cuando se interactúa con ellos indistintamente.
@@ -2280,12 +1972,868 @@
   <si>
     <t>Realizar un control en la funcionalidad de productos favoritos y su relación con el sistema de carrito.</t>
   </si>
+  <si>
+    <t>Cliente de pizzas</t>
+  </si>
+  <si>
+    <t>Comprar pizza</t>
+  </si>
+  <si>
+    <t>Comprar pizza de pepperoni</t>
+  </si>
+  <si>
+    <t>Interactuar con el carrito</t>
+  </si>
+  <si>
+    <t>Buscar productos</t>
+  </si>
+  <si>
+    <t>Pagar compra</t>
+  </si>
+  <si>
+    <t>Potencial cliente de Papa John's</t>
+  </si>
+  <si>
+    <t>Buscar comida</t>
+  </si>
+  <si>
+    <t>Estar loggeado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So that </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And </t>
+  </si>
+  <si>
+    <t>Tengo una cuenta en la plataforma de domicilios de Papa John's</t>
+  </si>
+  <si>
+    <t>Inicié sesión</t>
+  </si>
+  <si>
+    <t>Verificar que se busca y encuentra una pizza</t>
+  </si>
+  <si>
+    <t>Presiono Enter/clic en la lupa de busqueda</t>
+  </si>
+  <si>
+    <t>Visualizaré todas las opciones de pizza con pepperoni</t>
+  </si>
+  <si>
+    <t>@BuscarPizza</t>
+  </si>
+  <si>
+    <t>@FiltrarPorPrecio</t>
+  </si>
+  <si>
+    <t>Verificar que se filtran los productos de pepperoni por precio</t>
+  </si>
+  <si>
+    <t>Accedo a la opción Filtrar</t>
+  </si>
+  <si>
+    <t>Pongo un &lt;precioS&gt; en el rango superior</t>
+  </si>
+  <si>
+    <t>Pongo un &lt;precioI&gt; en el rango inferior</t>
+  </si>
+  <si>
+    <t>Visualizaré los productos en el rango &lt;precioI&gt; - &lt;precioS&gt;</t>
+  </si>
+  <si>
+    <t>@FiltrarPorCategoría</t>
+  </si>
+  <si>
+    <t>Verificar que se filtran los productos de pepperoni por categoría</t>
+  </si>
+  <si>
+    <t>Escribí "Pepperoni" en el campo de buscar</t>
+  </si>
+  <si>
+    <t>Añadí "pizza" en el campo de buscar</t>
+  </si>
+  <si>
+    <t>Presiné Enter/clic en la lupa de busqueda</t>
+  </si>
+  <si>
+    <t>Elijo la opción Promociones de la sección Categoría en el filtro</t>
+  </si>
+  <si>
+    <t>Visualizaré los combos o promociones de productos con pepperoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examples: </t>
+  </si>
+  <si>
+    <t>Busqué "Pepperoni pizza"</t>
+  </si>
+  <si>
+    <t>Verificar que se puede elegir un tamaño de pizza</t>
+  </si>
+  <si>
+    <t>Escogí el producto "Pepperoni pizzas"</t>
+  </si>
+  <si>
+    <t>Doy clic en el desplegable de tamaños</t>
+  </si>
+  <si>
+    <t>Elijo un tamaño</t>
+  </si>
+  <si>
+    <t>Visualizaré el cambio de precio de la pizza</t>
+  </si>
+  <si>
+    <t>@ElegirTamaño</t>
+  </si>
+  <si>
+    <t>@PersonalizarPizza</t>
+  </si>
+  <si>
+    <t>Verificar que las características de la pizza se pueden cambiar</t>
+  </si>
+  <si>
+    <t>Presioné el botón Personalizar del producto Pepperoni pizzas</t>
+  </si>
+  <si>
+    <t>Modifico los campos &lt;tamaño&gt;, &lt;tipoDeMasa&gt;, &lt;tipoDeBorde&gt; y &lt;salsa&gt;</t>
+  </si>
+  <si>
+    <t>Visualizaré un cambio en el valor &lt;precio&gt;</t>
+  </si>
+  <si>
+    <t>@CompletarOrden</t>
+  </si>
+  <si>
+    <t>Verificar que se agregan productos adicionales desde la sección Completa tu orden</t>
+  </si>
+  <si>
+    <t>Presiono el botón Agregar del producto Garlic Knots</t>
+  </si>
+  <si>
+    <t>Visulizaré un mensaje de Ítem agregado al carrito</t>
+  </si>
+  <si>
+    <t>Acceder al carrito</t>
+  </si>
+  <si>
+    <t>Agregué una orden de Pepperoni pizzas</t>
+  </si>
+  <si>
+    <t>@AumentarDisminuirCantidad</t>
+  </si>
+  <si>
+    <t>Identifiqué los botones +/- del carrito</t>
+  </si>
+  <si>
+    <t>Presiono el botón +</t>
+  </si>
+  <si>
+    <t>@EditarProducto</t>
+  </si>
+  <si>
+    <t>Verificar que se aumenta o disminuye la cantidad de la pizza en el carrito</t>
+  </si>
+  <si>
+    <t>Visualizaré un aumento del precio total</t>
+  </si>
+  <si>
+    <t>Visualizaré un aumento de la cantidad de pizzas</t>
+  </si>
+  <si>
+    <t>Verificar que las caracteristicas de la pizza se pueden editar</t>
+  </si>
+  <si>
+    <t>Identifiqué el botón Editar</t>
+  </si>
+  <si>
+    <t>Presiono el botón Editar</t>
+  </si>
+  <si>
+    <t>@EliminarPizza</t>
+  </si>
+  <si>
+    <t>Verificar que se elimina una pizza del carrito</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Identifiqué el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🗑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (basurero)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Presiono el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🗑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (basurero)</t>
+    </r>
+  </si>
+  <si>
+    <t>Visualizaré la ausencia de la pizza en el carrito</t>
+  </si>
+  <si>
+    <t>Escribir en el campo Buscar</t>
+  </si>
+  <si>
+    <t>Buscar pizza de pepperoni</t>
+  </si>
+  <si>
+    <t>Agregar orden de pizza</t>
+  </si>
+  <si>
+    <t>Pagar pizza de pepperoni</t>
+  </si>
+  <si>
+    <t>Verificar que se solicitan los campos obligatorios para realizar el pago</t>
+  </si>
+  <si>
+    <t>Presioné el botón Cerrar pedido en el carrito</t>
+  </si>
+  <si>
+    <t>Presiono el botón Ir para la Entrega sin rellenar ningun campo</t>
+  </si>
+  <si>
+    <t>Visualizaré algún mensaje de error de campos obligatorios</t>
+  </si>
+  <si>
+    <t>@PagoSinInformación</t>
+  </si>
+  <si>
+    <t>Modifico los campos &lt;nombre&gt;, &lt;apellidos&gt;, &lt;cédula&gt; y &lt;móvil&gt;</t>
+  </si>
+  <si>
+    <t>Presiono el botón Ir Para la Entrega</t>
+  </si>
+  <si>
+    <t>Visualizaré un mensaje de &lt;respuesta&gt;</t>
+  </si>
+  <si>
+    <t>Verificar que los campos obligatorios reciban solo caracteres alfabeticos y númericos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">|           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tamaño</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tipoDeMasa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">|    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tipoDeBorde</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">|   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>salsa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>precio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|
+|          Personal|  Tradicional|        Tradicional|   Pizza|25.900|
+|          Mediana|  Tradicional|        Tradicional|    BBQ|36.900|
+|           Familiar|        Delgada|Borde de queso|Ranch|57.300|
+|Mega-familiar|  Tradicional|        Tradicional|    BBQ|56.900|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>precioI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>precioS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|
+|12.000|  48.000|
+|20.000|  30.000|
+|          0|        100|
+|-1.000|     1.000|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">|           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tamaño</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tipoDeMasa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tipoDeBorde</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>salsa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>precio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|
+|          Personal|  Tradicional|    Tradicional|Pizza|25.900|
+|          Mediana|  Tradicional|    Tradicional| BBQ|36.900|
+|Mega-familiar|  Tradicional|    Tradicional| BBQ|56.900|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nombre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apellidos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">|              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cédula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">|                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>móvil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>respuesta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|
+|       Juan|      López|    1234567890|     3216549870|      Válido|
+|     Ju@n|      Lópe$|   1,234567890|    3,216549870|   Inválido|
+|       Ju4n|      L0pez|uno234567890|tres216549870|   Inválido|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>No hace parte del alcance:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+No es objeto del plan de prueba la verificación de funcionalidades que no hagan parte de los servicios de conversión de moneda y tasa de cambio.
+Tampoco se tendrán en cuenta pruebas de seguridad, rendimiento y estrés.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No hace parte del alcance:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No es objeto del plan de prueba la verificación de funcionalidades que no hagan parte del flujo de compra y pago de alguno de los alimentos o bebidas mencionados en la descripción del presente plan (efectuar el pago se excluye de lo que se considera proceso de pago).
+Tampoco se tendrán en cuenta pruebas de seguridad, rendimiento o estrés.</t>
+    </r>
+  </si>
+  <si>
+    <t>@InformaciónAlfanumérica</t>
+  </si>
+  <si>
+    <t>@DatosDeEntrega</t>
+  </si>
+  <si>
+    <t>Me identifiqué con datos válidos en la sección de pago</t>
+  </si>
+  <si>
+    <t>Modifico los campos &lt;dirección&gt;, &lt;informaciónAdicional&gt;, &lt;barrio&gt; y &lt;destinatario&gt;</t>
+  </si>
+  <si>
+    <t>Presiono el botón Ir para el pago</t>
+  </si>
+  <si>
+    <t>Verificar que se solicite una dirección de manera obligatoria para el envío</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">|       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dirección</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>informaciónAdicional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>barrio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>destinatario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>respuesta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|
+|                        |                                         |           |                      |    Inválido|
+|Calle 1 # 1 - 1|                                        |           |                       |       Válido|
+|Calle 1 # 1 - 1|                                        |           |               Juan|       Válido|</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2399,8 +2947,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC198E0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2439,19 +3002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2474,7 +3025,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -2821,19 +3372,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="8"/>
       </left>
       <right/>
@@ -2925,63 +3463,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -3119,11 +3605,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF6AC3EC"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6AC3EC"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF6AC3EC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF6AC3EC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3150,28 +3721,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3180,69 +3739,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3251,28 +3788,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3335,71 +3860,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3730,8 +4273,9 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF6AC3EC"/>
+      <color rgb="FFC198E0"/>
       <color rgb="FF090947"/>
-      <color rgb="FF6AC3EC"/>
       <color rgb="FFFF7E06"/>
       <color rgb="FFA5A5A5"/>
     </mruColors>
@@ -4257,42 +4801,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>0</v>
@@ -4323,79 +4867,79 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="378" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="32" t="s">
+      <c r="A4" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>200</v>
+      <c r="E4" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="369.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="A5" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>208</v>
+      <c r="E5" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4437,18 +4981,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="A1" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -4458,575 +5002,575 @@
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A3" s="31">
+      <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="31">
+      <c r="E3" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="31">
-        <v>1</v>
-      </c>
-      <c r="F3" s="31">
+      <c r="F3" s="19">
         <v>5</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="19">
         <f>E3*F3</f>
         <v>5</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="19">
         <f>G3</f>
         <v>5</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" s="97" t="s">
-        <v>237</v>
+      <c r="I3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="69" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A4" s="32">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="32">
+      <c r="B4" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="20">
         <v>1</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="20">
         <v>1</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="20">
         <v>2</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="20">
         <f t="shared" ref="G4:G9" si="0">E4*F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="20">
         <f t="shared" ref="H4:H10" si="1">G4</f>
         <v>2</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>106</v>
+      <c r="I4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="31">
+      <c r="B5" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="19">
         <v>1</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="19">
         <v>1</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="19">
         <v>5</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>104</v>
+      <c r="I5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="32">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="B6" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="20">
         <v>1</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="20">
         <v>1</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="20">
         <v>5</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>219</v>
+      <c r="I6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="31">
+      <c r="B7" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="19">
         <v>1</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="19">
         <v>3</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="19">
         <v>5</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="19">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>221</v>
+      <c r="I7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A8" s="32">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="32">
+      <c r="B8" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="20">
         <v>1</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="20">
         <v>1</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="20">
         <v>1</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I8" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>225</v>
+      <c r="I8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A9" s="31">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="31">
+      <c r="B9" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19">
         <v>1</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="19">
         <v>2</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="19">
         <v>4</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="19">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>223</v>
+      <c r="I9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A10" s="32">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="32">
+      <c r="B10" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="20">
         <v>1</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="20">
         <v>5</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="20">
         <v>2</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="20">
         <f>E10*F10</f>
         <v>10</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I10" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>227</v>
+      <c r="I10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="31">
+      <c r="B11" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="19">
         <v>1</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="19">
         <v>1</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="19">
         <v>5</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="19">
         <f t="shared" ref="G11:G18" si="2">E11*F11</f>
         <v>5</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="19">
         <f t="shared" ref="H11:H18" si="3">G11</f>
         <v>5</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>233</v>
+      <c r="I11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="32">
+      <c r="B12" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="20">
         <v>5</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="20">
         <v>5</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="20">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="20">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I12" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>236</v>
+      <c r="I12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A13" s="31">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="31">
+      <c r="B13" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="19">
         <v>1</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="19">
         <v>1</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="19">
         <v>5</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="19">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="19">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>233</v>
+      <c r="I13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.3">
-      <c r="A14" s="32">
+      <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="32">
+      <c r="B14" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="20">
         <v>1</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="20">
         <v>1</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="20">
         <v>5</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="20">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="20">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I14" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>241</v>
+      <c r="I14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A15" s="31">
+      <c r="A15" s="19">
         <v>13</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="31">
+      <c r="B15" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="19">
         <v>1</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="19">
         <v>1</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="19">
         <v>1</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I15" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>243</v>
+      <c r="I15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
+      <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="32">
+      <c r="B16" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="20">
         <v>1</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="20">
         <v>4</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="20">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="20">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I16" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>245</v>
+      <c r="I16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
+      <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="31">
+      <c r="B17" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="19">
         <v>1</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="19">
         <v>1</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="19">
         <v>5</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="19">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="19">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>247</v>
+      <c r="I17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A18" s="32">
+      <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="32">
+      <c r="B18" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="20">
         <v>1</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="20">
         <v>3</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="20">
         <v>1</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="20">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="20">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I18" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>249</v>
+      <c r="I18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5076,18 +5620,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="A1" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -5097,575 +5641,575 @@
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A3" s="31">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="31">
+      <c r="B3" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="19">
         <v>1</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="19">
         <v>5</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="19">
         <f>E3*F3</f>
         <v>5</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="19">
         <f>G3</f>
         <v>5</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="L3" s="97" t="s">
-        <v>237</v>
+      <c r="I3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L3" s="69" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A4" s="32">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="32">
+      <c r="B4" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="20">
         <v>1</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="20">
         <v>3</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="20">
         <v>4</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="20">
         <f t="shared" ref="G4" si="0">E4*F4</f>
         <v>12</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="20">
         <f t="shared" ref="H4:H10" si="1">G4</f>
         <v>12</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>253</v>
+      <c r="I4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="31">
+      <c r="B5" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="19">
         <v>1</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="19">
         <v>1</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="19">
         <v>5</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="19">
         <f>E5*F5</f>
         <v>5</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="19">
         <f>G5</f>
         <v>5</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>255</v>
+      <c r="I5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="32">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="B6" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="20">
         <v>1</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="20">
         <v>1</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="20">
         <v>5</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="20">
         <f t="shared" ref="G6:G10" si="2">E6*F6</f>
         <v>5</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>109</v>
+      <c r="I6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="31">
+      <c r="B7" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="19">
         <v>1</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="19">
         <v>2</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="19">
         <v>3</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="19">
         <f>G7</f>
         <v>6</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>257</v>
+      <c r="I7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A8" s="32">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="32">
+      <c r="B8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="20">
         <v>1</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="20">
         <v>2</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="20">
         <v>3</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="20">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I8" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>111</v>
+      <c r="I8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="31">
+      <c r="B9" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="19">
         <v>1</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="19">
         <v>1</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="19">
         <v>1</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>259</v>
+      <c r="I9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.3">
-      <c r="A10" s="32">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="32">
+      <c r="B10" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="20">
         <v>1</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="20">
         <v>1</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="20">
         <v>5</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="20">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I10" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>271</v>
+      <c r="I10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="31">
+      <c r="B11" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="19">
         <v>1</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="19">
         <v>4</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="19">
         <v>3</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="19">
         <f t="shared" ref="G11:G18" si="3">E11*F11</f>
         <v>12</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="19">
         <f t="shared" ref="H11:H18" si="4">G11</f>
         <v>12</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>261</v>
+      <c r="I11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="32">
+      <c r="B12" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="20">
         <v>1</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="20">
         <v>2</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="20">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="20">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I12" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>273</v>
+      <c r="I12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="31">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="31">
+      <c r="B13" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="19">
         <v>1</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="19">
         <v>5</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="19">
         <v>5</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="19">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="19">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="I13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>264</v>
+      <c r="I13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A14" s="32">
+      <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="32">
+      <c r="B14" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="20">
         <v>1</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="20">
         <v>1</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="20">
         <v>1</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="20">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I14" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>275</v>
+      <c r="I14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A15" s="31">
+      <c r="A15" s="19">
         <v>13</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="31">
+      <c r="B15" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="19">
         <v>1</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="19">
         <v>5</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="19">
         <v>3</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="19">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="19">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="I15" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>266</v>
+      <c r="I15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
+      <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="32">
+      <c r="B16" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="20">
         <v>1</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="20">
         <v>5</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="20">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="20">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I16" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>277</v>
+      <c r="I16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
+      <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="31">
+      <c r="B17" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="19">
         <v>1</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="19">
         <v>3</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="19">
         <v>3</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="19">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="19">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="I17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>268</v>
+      <c r="I17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="32">
+      <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="32">
+      <c r="B18" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="20">
         <v>1</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="20">
         <v>2</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="20">
         <v>5</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="20">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="20">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="I18" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>279</v>
+      <c r="I18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5691,327 +6235,1268 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="D9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B29" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="B38" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="33"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="34"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B55" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="15" t="s">
+      <c r="C65" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="B66" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="33"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="34"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="15"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="33"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="34"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="15"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B85" s="12"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="B88" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="15"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="19"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+    </row>
+    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="B94" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="33"/>
+      <c r="B95" s="34"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B96" s="15"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="B97" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B98" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="15" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="33"/>
+      <c r="B102" s="34"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B103" s="15"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="19"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="19"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="19"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="19"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B41" s="15"/>
-    </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="76" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="14">
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6023,682 +7508,865 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="D10" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="B19" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="19"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="C26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="16"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="19"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="B30" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="D30" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="16"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="19"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="C33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="33"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="34"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="17" t="s">
+      <c r="B52" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C55" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="12"/>
+    </row>
+    <row r="57" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="58" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="19"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="C58" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="33"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="34"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="26"/>
-      <c r="B41" s="27"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="19"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+      <c r="B62" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="17" t="s">
+      <c r="D62" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="10"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64" s="86" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="10"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="12"/>
+    </row>
+    <row r="67" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="10"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="58" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="12"/>
-      <c r="B52" s="15"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="14"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="17" t="s">
+      <c r="C68" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="12"/>
-      <c r="B59" s="16"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="19"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="12"/>
-      <c r="B66" s="16"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="19"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="12"/>
-      <c r="B73" s="16"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="19"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="12"/>
-      <c r="B80" s="16"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" s="19"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="26"/>
-      <c r="B87" s="27"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B88" s="19"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C27:D27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6707,11 +8375,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -6728,267 +8396,230 @@
     <col min="10" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
+    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="80"/>
     </row>
     <row r="2" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="79"/>
+      <c r="A2" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="76"/>
+      <c r="G2" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="81" t="s">
-        <v>150</v>
+      <c r="A3" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="83" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="I5" s="84"/>
+      <c r="A4" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="63"/>
+      <c r="G5" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="85"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="86"/>
-    </row>
-    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="I8" s="87"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="88" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="91"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="93"/>
-    </row>
-    <row r="13" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-    </row>
-    <row r="16" spans="1:9" ht="55.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="88.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="88.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="36.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="A6" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="82"/>
+      <c r="D7" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="65"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="67"/>
+    </row>
+    <row r="9" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="78"/>
+      <c r="I9" s="79"/>
+    </row>
+    <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+    </row>
+    <row r="14" spans="1:9" ht="55.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="36.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D14:F14"/>
+  <mergeCells count="17">
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="H5:I6"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H5:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E5:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D8:F8"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7000,11 +8631,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -7021,363 +8652,326 @@
     <col min="10" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
+    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="80"/>
     </row>
     <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="79"/>
+      <c r="A2" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="76"/>
+      <c r="G2" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="81" t="s">
-        <v>165</v>
+      <c r="A3" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="I4" s="83" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="I5" s="84"/>
+      <c r="A4" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="63"/>
+      <c r="G5" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="85"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="86"/>
-    </row>
-    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.3">
-      <c r="A8" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="I8" s="87"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="91"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="93"/>
-    </row>
-    <row r="13" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-    </row>
-    <row r="16" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:3" ht="83.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:3" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="67"/>
-    </row>
-    <row r="25" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="A6" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="64"/>
+    </row>
+    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="82"/>
+      <c r="D7" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="82"/>
+      <c r="G7" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="82"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="67"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="78"/>
+      <c r="I9" s="79"/>
+    </row>
+    <row r="11" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+    </row>
+    <row r="14" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" ht="83.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:3" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="49"/>
+    </row>
+    <row r="23" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="51"/>
+    </row>
+    <row r="26" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
     </row>
     <row r="27" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="69"/>
-    </row>
-    <row r="28" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="44"/>
+    </row>
+    <row r="28" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="71"/>
-    </row>
-    <row r="29" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="62"/>
-    </row>
-    <row r="30" spans="1:3" ht="108" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B30" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="59"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="73" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
-    </row>
-    <row r="32" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-    </row>
-    <row r="33" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
+        <v>104</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="41"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+    </row>
+    <row r="30" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+    </row>
+    <row r="31" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="D14:F14"/>
+  <mergeCells count="24">
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E5:F7"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H5:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A10:C10"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7395,59 +8989,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="220.33203125" style="29" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="29"/>
+    <col min="1" max="1" width="220.33203125" style="17" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
-        <v>188</v>
+      <c r="A1" s="26" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
+      <c r="A2" s="18"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
-        <v>180</v>
+      <c r="A3" s="22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
-        <v>181</v>
+      <c r="A4" s="23" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
-        <v>182</v>
+      <c r="A5" s="22" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
-        <v>183</v>
+      <c r="A6" s="23" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
-        <v>184</v>
+      <c r="A7" s="22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
-        <v>185</v>
+      <c r="A8" s="23" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="38" t="s">
-        <v>186</v>
+      <c r="A9" s="24" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="39"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" spans="1:1" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="41" t="s">
-        <v>187</v>
+      <c r="A11" s="27" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/PlanDePruebasRiesgosCasosDePrueba.xlsx
+++ b/PlanDePruebasRiesgosCasosDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sofka\Training\Duras\Repos\C1-2023-QA-Calidad-RF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF816365-6FFC-41A4-8E66-A2DCBCB6EC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBC6169-65AF-42AB-B699-7C942419FAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="893" xr2:uid="{AF02FBB8-0A87-4B34-9297-94FCF679C14E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="300">
   <si>
     <t>Plan de Calidad</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Pasó</t>
+  </si>
+  <si>
+    <t>No pasó</t>
   </si>
   <si>
     <t>Impacto</t>
@@ -898,7 +901,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Este bug se deriva del CP @MensajeConfirmación</t>
+      <t>Este bug se deriva del CP @PasswordInseguro</t>
     </r>
     <r>
       <rPr>
@@ -941,7 +944,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Este bug se deriva del CP @PasswordInseguro</t>
+      <t>Este bug se deriva del CP @LímiteIngresosFallidos</t>
     </r>
     <r>
       <rPr>
@@ -963,29 +966,22 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>Referencias:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Este bug se deriva del CP @LímiteIngresosFallidos</t>
-    </r>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BUG4</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -995,7 +991,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
+      <t>ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BUG5</t>
     </r>
   </si>
   <si>
@@ -1008,17 +1014,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ID:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BUG3</t>
+      <t>Ambiente:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navegador Opera GX.</t>
     </r>
   </si>
   <si>
@@ -1031,122 +1037,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ID:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BUG4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BUG5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Título:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> No se muestra el mensaje de información del envío de un correo de confirmación de registro. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Resumen:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Se registra un usuario de manera satisfactoria, y se redireciona directamente a la página del perfil del usuario, sin antes mostrar el mensaje informando el enivio del correo de confirmación.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ambiente:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Navegador Opera GX.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Prioridad:</t>
     </r>
     <r>
@@ -1158,85 +1048,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Descripción:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Para lograr reproducir este bug, es necesario seguir los pasos siguientes:
-1. Abrir el navegador Opera GX.
-2. Ingresar la URL https://tiendacereza.com/account/register.
-3. Identificar los campos obligatorios de correo y contraseña.
-4. Digitar valores validos para los campos obligatorios.
-5. Identificar el botón Crear.
-6. Dar clic en el botón Crear.
-7. Redireccionamiento al perfil del usuario registrado sin mensaje de información de envio de correo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Resultados Obtenidos:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Redireccionamiento a la página de perfil de usuario.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Resultados esperados:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Redireccionamiento a la página de ingreso, visualización de un mensaje de información sobre el envío de correo de confirmación.</t>
     </r>
   </si>
   <si>
@@ -1389,28 +1200,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> área de seguridad.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Áreas afectadas:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> interfaz de usuario y área de seguridad.</t>
     </r>
   </si>
   <si>
@@ -2027,9 +1816,6 @@
     <t>Verificar que se busca y encuentra una pizza</t>
   </si>
   <si>
-    <t>Presiono Enter/clic en la lupa de busqueda</t>
-  </si>
-  <si>
     <t>Visualizaré todas las opciones de pizza con pepperoni</t>
   </si>
   <si>
@@ -2066,9 +1852,6 @@
     <t>Añadí "pizza" en el campo de buscar</t>
   </si>
   <si>
-    <t>Presiné Enter/clic en la lupa de busqueda</t>
-  </si>
-  <si>
     <t>Elijo la opción Promociones de la sección Categoría en el filtro</t>
   </si>
   <si>
@@ -2123,9 +1906,6 @@
     <t>Presiono el botón Agregar del producto Garlic Knots</t>
   </si>
   <si>
-    <t>Visulizaré un mensaje de Ítem agregado al carrito</t>
-  </si>
-  <si>
     <t>Acceder al carrito</t>
   </si>
   <si>
@@ -2153,9 +1933,6 @@
     <t>Visualizaré un aumento de la cantidad de pizzas</t>
   </si>
   <si>
-    <t>Verificar que las caracteristicas de la pizza se pueden editar</t>
-  </si>
-  <si>
     <t>Identifiqué el botón Editar</t>
   </si>
   <si>
@@ -2239,9 +2016,6 @@
     <t>Presioné el botón Cerrar pedido en el carrito</t>
   </si>
   <si>
-    <t>Presiono el botón Ir para la Entrega sin rellenar ningun campo</t>
-  </si>
-  <si>
     <t>Visualizaré algún mensaje de error de campos obligatorios</t>
   </si>
   <si>
@@ -2255,123 +2029,6 @@
   </si>
   <si>
     <t>Visualizaré un mensaje de &lt;respuesta&gt;</t>
-  </si>
-  <si>
-    <t>Verificar que los campos obligatorios reciban solo caracteres alfabeticos y númericos</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">|           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tamaño</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tipoDeMasa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">|    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tipoDeBorde</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">|   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>salsa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>precio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|
-|          Personal|  Tradicional|        Tradicional|   Pizza|25.900|
-|          Mediana|  Tradicional|        Tradicional|    BBQ|36.900|
-|           Familiar|        Delgada|Borde de queso|Ranch|57.300|
-|Mega-familiar|  Tradicional|        Tradicional|    BBQ|56.900|</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2826,6 +2483,441 @@
 |                        |                                         |           |                      |    Inválido|
 |Calle 1 # 1 - 1|                                        |           |                       |       Válido|
 |Calle 1 # 1 - 1|                                        |           |               Juan|       Válido|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">|           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tamaño</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tipoDeMasa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">|    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tipoDeBorde</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">|   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>salsa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>precio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|
+|          Personal|  Tradicional|        Tradicional|   Pizza|25.900|
+|          Mediana|  Tradicional|        Tradicional|    BBQ|36.900|
+|           Familiar|   Tradicional|Borde de queso|Ranch|53.800|
+|Mega-familiar|        Delgada|        Tradicional|    BBQ|60.400|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BUG6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 05/03/2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Título:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> No se puede seleccionar un tipo de masa diferente para las pizzas que no sean Familiar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resumen:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+No se muestran opciones de tipos de masa adicionales cuando el tamaño de pizza es diferente a Familiar con borde Tradicional.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alcance/Impacto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resultados esperados:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Desplegables con todas las opciones de tipo de masa para cualquier combinación de tamaño, borde y salsa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resultados Obtenidos:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Desplegables con tipo de masa unicamente Tradicional para opciones que no sean tamaño Familiar con borde Tradicional.</t>
+    </r>
+  </si>
+  <si>
+    <t>Presiono Enter/clic en la lupa de búsqueda</t>
+  </si>
+  <si>
+    <t>Verificar que las características de la pizza se pueden editar</t>
+  </si>
+  <si>
+    <t>Presioné Enter/clic en la lupa de búsqueda</t>
+  </si>
+  <si>
+    <t>Presiono el botón Ir para la Entrega sin rellenar ningún campo</t>
+  </si>
+  <si>
+    <t>Verificar que los campos obligatorios reciban solo caracteres alfabéticos y numéricos</t>
+  </si>
+  <si>
+    <t>Visualizaré un mensaje de Ítem agregado al carrito</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Referencias:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Este bug se deriva del CP @PersonalizarPizza.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Para lograr reproducir este bug, es necesario seguir los pasos siguientes:
+1. Abrir el navegador Opera GX.
+2. Ingresar la URL https://www.domiciliospapajohns.com.co/.
+3. Iniciar sesión.
+4. Digitar "Pepperoni pizza" en el buscador.
+5. Identificar el botón Personalizar del producto Pepperoni pizzas.
+6. Dar clic en el botón Personalizar del producto Pepperoni pizzas.
+7. Redireccionamiento a la página de selección de caracteristicas de la pizza.
+8. Llenar los campos con los valores del ejemplo 4 del CP.
+9. Evidenciar la incapacidad de realizar el paso anterior.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Título:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se permite ingresar el nombre y apellidos de la persona que efectuará el pago conteniendo números</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resumen:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Se permite ingresar una combinación de caracteres alfabeticos y numericos en los campos de nombre y apellidos durante el pago del pedido.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Para lograr reproducir este bug, es necesario seguir los pasos siguientes:
+1. Abrir el navegador Opera GX.
+2. Añadir cualquier producto del menú al carrito.
+3. Identificar los campos obligatorios de correo y contraseña y no obligatorios de nombre y apellido.
+4. Digitar valores validos para los campos no obligatorios.
+5. Digitar valores validos para los campos obligatorios, donde la contraseña contiene al menos el valor de uno de los campos no obligatorios.
+6. Identificar el botón Crear.
+7. Dar clic en el botón Crear.
+8. Redireccionamiento al perfil del usuario registrado, en lugar de denegar el registro y mostrar el mensaje de error de contraseña débil o insegura.</t>
     </r>
   </si>
 </sst>
@@ -2963,7 +3055,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3003,6 +3095,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3694,7 +3792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3739,18 +3837,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3762,24 +3864,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3896,13 +3998,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3923,7 +4025,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3944,6 +4046,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4801,42 +4922,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>0</v>
@@ -4867,79 +4988,79 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="378" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="20" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="369.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="F5" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="J5" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K5" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L5" s="21" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="369.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4981,18 +5102,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="A1" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -5002,575 +5123,575 @@
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="B3" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="21">
         <v>1</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="21">
         <v>1</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="21">
         <v>5</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="21">
         <f>E3*F3</f>
         <v>5</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="21">
         <f>G3</f>
         <v>5</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="69" t="s">
-        <v>158</v>
+      <c r="I3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="20">
+      <c r="B4" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="22">
         <v>1</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="22">
         <v>1</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="22">
         <v>2</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="22">
         <f t="shared" ref="G4:G9" si="0">E4*F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="22">
         <f t="shared" ref="H4:H10" si="1">G4</f>
         <v>2</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="D5" s="21">
         <v>1</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="21">
         <v>1</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="21">
         <v>5</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="21">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>47</v>
+      <c r="I5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="B6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="22">
         <v>1</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="22">
         <v>1</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="22">
         <v>5</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>140</v>
+      <c r="I6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="B7" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="21">
         <v>1</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="21">
         <v>3</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="21">
         <v>5</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="21">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>142</v>
+      <c r="I7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="B8" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="22">
         <v>1</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="22">
         <v>1</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="22">
         <v>1</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>146</v>
+      <c r="I8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="B9" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="21">
         <v>1</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="21">
         <v>2</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="21">
         <v>4</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="21">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>144</v>
+      <c r="I9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="B10" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="22">
         <v>1</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="22">
         <v>5</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="22">
         <v>2</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="22">
         <f>E10*F10</f>
         <v>10</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="22">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>148</v>
+      <c r="I10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="B11" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21">
         <v>1</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="21">
         <v>1</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="21">
         <v>5</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="21">
         <f t="shared" ref="G11:G18" si="2">E11*F11</f>
         <v>5</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="21">
         <f t="shared" ref="H11:H18" si="3">G11</f>
         <v>5</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>154</v>
+      <c r="I11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
+      <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="B12" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="22">
         <v>5</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="22">
         <v>5</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="22">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>157</v>
+      <c r="I12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="B13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="21">
         <v>1</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="21">
         <v>1</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="21">
         <v>5</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="21">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="21">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="19" t="s">
+      <c r="I13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
-        <v>12</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="C14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="22">
         <v>1</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="22">
         <v>1</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="22">
         <v>5</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="22">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
-        <v>13</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="D15" s="21">
         <v>1</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="21">
         <v>1</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="21">
         <v>1</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="21">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>164</v>
+      <c r="I15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
+      <c r="A16" s="22">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="B16" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="22">
         <v>1</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="22">
         <v>1</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="22">
         <v>4</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="22">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>166</v>
+      <c r="I16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="21">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="19">
+      <c r="B17" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="21">
         <v>1</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="21">
         <v>1</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="21">
         <v>5</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="21">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="21">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>168</v>
+      <c r="I17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="54" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
+      <c r="A18" s="22">
         <v>16</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="20">
+      <c r="B18" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="22">
         <v>1</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="22">
         <v>3</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="22">
         <v>1</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="22">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>170</v>
+      <c r="I18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -5620,18 +5741,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="A1" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -5641,575 +5762,575 @@
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="B3" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="21">
         <v>1</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="21">
         <v>1</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="21">
         <v>5</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="21">
         <f>E3*F3</f>
         <v>5</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="21">
         <f>G3</f>
         <v>5</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="L3" s="69" t="s">
-        <v>158</v>
+      <c r="I3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="20">
+      <c r="B4" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="22">
         <v>1</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="22">
         <v>3</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="22">
         <v>4</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="22">
         <f t="shared" ref="G4" si="0">E4*F4</f>
         <v>12</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="22">
         <f t="shared" ref="H4:H10" si="1">G4</f>
         <v>12</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>174</v>
+      <c r="I4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="B5" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="21">
         <v>1</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="21">
         <v>1</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="21">
         <v>5</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="21">
         <f>E5*F5</f>
         <v>5</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="21">
         <f>G5</f>
         <v>5</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>176</v>
+      <c r="I5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="B6" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="22">
         <v>1</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="22">
         <v>1</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="22">
         <v>5</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="22">
         <f t="shared" ref="G6:G10" si="2">E6*F6</f>
         <v>5</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>51</v>
+      <c r="I6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="B7" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="21">
         <v>1</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="21">
         <v>2</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="21">
         <v>3</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="21">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="21">
         <f>G7</f>
         <v>6</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>178</v>
+      <c r="I7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="B8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="22">
         <v>1</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="22">
         <v>2</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="22">
         <v>3</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="22">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="22">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>53</v>
+      <c r="I8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="B9" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="21">
         <v>1</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="21">
         <v>1</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="21">
         <v>1</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="D10" s="22">
         <v>1</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="22">
         <v>1</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="22">
         <v>5</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="22">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>192</v>
+      <c r="I10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="B11" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="21">
         <v>1</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="21">
         <v>4</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="21">
         <v>3</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="21">
         <f t="shared" ref="G11:G18" si="3">E11*F11</f>
         <v>12</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="21">
         <f t="shared" ref="H11:H18" si="4">G11</f>
         <v>12</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>182</v>
+      <c r="I11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
+      <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="B12" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="22">
         <v>1</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="22">
         <v>2</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>194</v>
+      <c r="I12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="B13" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="21">
         <v>1</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="21">
         <v>5</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="21">
         <v>5</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="21">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="21">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>185</v>
+      <c r="I13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
+      <c r="A14" s="22">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="B14" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="22">
         <v>1</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="22">
         <v>1</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="22">
         <v>1</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>196</v>
+      <c r="I14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="B15" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="21">
         <v>1</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="21">
         <v>5</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="21">
         <v>3</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="21">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="21">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>187</v>
+      <c r="I15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
+      <c r="A16" s="22">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="B16" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="22">
         <v>1</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="22">
         <v>1</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="22">
         <v>5</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>198</v>
+      <c r="I16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="21">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="19">
+      <c r="B17" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="21">
         <v>1</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="21">
         <v>3</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="21">
         <v>3</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="21">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="21">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>189</v>
+      <c r="I17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
+      <c r="A18" s="22">
         <v>16</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="20">
+      <c r="B18" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="22">
         <v>1</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="22">
         <v>2</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="22">
         <v>5</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="22">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>200</v>
+      <c r="I18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6248,50 +6369,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="A1" s="73" t="s">
         <v>204</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
@@ -6299,689 +6420,689 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="D24" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>206</v>
+      <c r="A28" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="D37" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="D38" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="D39" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="D44" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="33"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D49" s="15"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B51" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="D51" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C55" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" s="21" t="s">
+      <c r="A55" s="73" t="s">
         <v>204</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="10"/>
@@ -6989,493 +7110,493 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="15"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B64" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="D64" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B65" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="D65" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B66" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="D66" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="33"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="34"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="36"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D69" s="15"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="D71" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="33"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="34"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="36"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B76" s="15"/>
       <c r="C76" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D76" s="15"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B78" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="D78" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>202</v>
+      <c r="A82" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B85" s="12"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B89" s="15"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="33"/>
-      <c r="B95" s="34"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="36"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B96" s="15"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="33"/>
-      <c r="B102" s="34"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="36"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B103" s="15"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>12</v>
@@ -7521,814 +7642,820 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="A1" s="73" t="s">
         <v>204</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="14" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="12"/>
       <c r="C14" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="14" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>227</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C23" s="95"/>
       <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="10" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="58" t="s">
-        <v>283</v>
+      <c r="B25" s="60" t="s">
+        <v>269</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="58" t="s">
-        <v>284</v>
+      <c r="D25" s="60" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="14" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C34" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>206</v>
+      <c r="A34" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="14" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>241</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C47" s="95"/>
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="33"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="34"/>
+    <row r="49" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="35"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="36"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="14" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
+      <c r="B55" s="95"/>
       <c r="C55" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="10" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="58" t="s">
-        <v>282</v>
+      <c r="B57" s="60" t="s">
+        <v>281</v>
       </c>
       <c r="C57" s="10"/>
-      <c r="D57" s="58" t="s">
-        <v>285</v>
+      <c r="D57" s="60" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="33"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="34"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="36"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="14" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D60" s="15"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="85" t="s">
-        <v>215</v>
-      </c>
-      <c r="D64" s="86" t="s">
-        <v>292</v>
+      <c r="A64" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="88" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>251</v>
-      </c>
+      <c r="A65" s="17"/>
+      <c r="B65" s="95"/>
       <c r="C65" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="12"/>
       <c r="C66" s="10" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D66" s="12"/>
     </row>
@@ -8336,22 +8463,22 @@
       <c r="A67" s="10"/>
       <c r="B67" s="12"/>
       <c r="C67" s="10"/>
-      <c r="D67" s="58" t="s">
-        <v>294</v>
+      <c r="D67" s="60" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8397,203 +8524,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="80"/>
+      <c r="A1" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="75" t="s">
+      <c r="A2" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="78"/>
+      <c r="G2" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="78"/>
+    </row>
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="74" t="s">
+      <c r="B3" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="65"/>
+      <c r="G5" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="65"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="85"/>
+      <c r="I6" s="86"/>
+    </row>
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="67"/>
+      <c r="G7" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="67"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="69"/>
+    </row>
+    <row r="9" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="63"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84"/>
-    </row>
-    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="37" t="s">
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="37" t="s">
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="65"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="67"/>
-    </row>
-    <row r="9" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81"/>
     </row>
     <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="D12" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="14" spans="1:9" ht="55.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8634,8 +8761,8 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -8653,203 +8780,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="80"/>
+      <c r="A1" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="91" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="78"/>
+      <c r="G2" s="89" t="s">
+        <v>282</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="78"/>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.3">
+      <c r="A3" s="90" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>283</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A4" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="65"/>
+      <c r="G5" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="65"/>
+    </row>
+    <row r="6" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="66"/>
+    </row>
+    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.3">
+      <c r="A7" s="90" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="63"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="64"/>
-    </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="E7" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="84"/>
+      <c r="G7" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="84"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="82"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="67"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="77" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="69"/>
+    </row>
+    <row r="9" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="79" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="77" t="s">
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81"/>
     </row>
     <row r="11" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="D12" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="14" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8858,93 +8985,93 @@
     <row r="19" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:3" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="49"/>
+      <c r="A22" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="51"/>
     </row>
     <row r="23" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="51"/>
+        <v>74</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="53"/>
     </row>
     <row r="26" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
+        <v>64</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
     </row>
     <row r="27" spans="1:3" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="44"/>
+        <v>63</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="46"/>
     </row>
     <row r="28" spans="1:3" ht="108" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="41"/>
+        <v>97</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="43"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
+      <c r="A29" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
     </row>
     <row r="30" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="41"/>
+      <c r="A30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
     </row>
     <row r="31" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -8989,59 +9116,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="220.33203125" style="17" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="17"/>
+    <col min="1" max="1" width="220.33203125" style="19" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
-        <v>117</v>
+      <c r="A1" s="28" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
+      <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="27"/>
+    </row>
+    <row r="11" spans="1:1" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="29" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="25"/>
-    </row>
-    <row r="11" spans="1:1" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="27" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/PlanDePruebasRiesgosCasosDePrueba.xlsx
+++ b/PlanDePruebasRiesgosCasosDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sofka\Training\Duras\Repos\C1-2023-QA-Calidad-RF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBC6169-65AF-42AB-B699-7C942419FAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D8979C-1D79-4AD1-A5E2-0EDB4E0FDF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="893" xr2:uid="{AF02FBB8-0A87-4B34-9297-94FCF679C14E}"/>
   </bookViews>

--- a/PlanDePruebasRiesgosCasosDePrueba.xlsx
+++ b/PlanDePruebasRiesgosCasosDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sofka\Training\Duras\Repos\C1-2023-QA-Calidad-RF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D8979C-1D79-4AD1-A5E2-0EDB4E0FDF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9112E7D-5D4F-4508-AE16-A9767CB1C452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="893" xr2:uid="{AF02FBB8-0A87-4B34-9297-94FCF679C14E}"/>
   </bookViews>

--- a/PlanDePruebasRiesgosCasosDePrueba.xlsx
+++ b/PlanDePruebasRiesgosCasosDePrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sofka\Training\Duras\Repos\C1-2023-QA-Calidad-RF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA238C6-B749-4D79-8968-1FC723B3AE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B5B1CC-A3D4-4174-A026-4B1DA3DBD978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="893" xr2:uid="{AF02FBB8-0A87-4B34-9297-94FCF679C14E}"/>
   </bookViews>
@@ -2589,29 +2589,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Título:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> No se convierte una cantidad elevada de dólares a pesos colombianos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Resumen:</t>
     </r>
     <r>
@@ -2739,29 +2716,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Título:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Se muestra un error al usar la coma como separador decimal</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Resumen:</t>
     </r>
     <r>
@@ -2866,29 +2820,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Título:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> No se muestra la tasa de cambio para la fecha antigua especificada</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Resumen:</t>
     </r>
     <r>
@@ -3087,6 +3018,84 @@
   </si>
   <si>
     <t>Verificar que el campo To es sensible a mayúsculas</t>
+  </si>
+  <si>
+    <r>
+      <t>Título:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> No se convierte una cantidad elevada de dólares a pesos colombianos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Título:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se muestra un error al usar la coma como separador decimal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Título:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> No se muestra la tasa de cambio para la fecha antigua especificada</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3741,7 +3750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3807,6 +3816,45 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3825,63 +3873,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3891,45 +3882,56 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4788,32 +4790,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -4968,18 +4970,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -5046,7 +5048,7 @@
       <c r="J3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="31" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5607,18 +5609,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -5685,7 +5687,7 @@
       <c r="J3" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="31" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6235,13 +6237,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="33" t="s">
         <v>155</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="33" t="s">
         <v>155</v>
       </c>
       <c r="D1" s="19" t="s">
@@ -6409,10 +6411,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -6495,10 +6497,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
@@ -6509,7 +6511,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -6537,7 +6539,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -6551,7 +6553,7 @@
         <v>29</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -6561,7 +6563,6 @@
       <c r="B26" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="66"/>
       <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6574,28 +6575,28 @@
       <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="39" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -6617,13 +6618,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -6631,47 +6632,47 @@
         <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="39" t="s">
         <v>272</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="39" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -6685,7 +6686,7 @@
         <v>32</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -6693,13 +6694,13 @@
         <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -6707,47 +6708,47 @@
         <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="39" t="s">
         <v>272</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="39" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -6755,7 +6756,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>32</v>
@@ -6769,13 +6770,13 @@
         <v>28</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -6783,47 +6784,47 @@
         <v>29</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="39" t="s">
         <v>272</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="68" t="s">
+      <c r="D45" s="39" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="31"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="32"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="45"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -6845,13 +6846,13 @@
         <v>28</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -6859,47 +6860,47 @@
         <v>29</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="39" t="s">
         <v>272</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="D51" s="39" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="45"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -6921,13 +6922,13 @@
         <v>28</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -6935,47 +6936,47 @@
         <v>29</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="39" t="s">
         <v>272</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="68" t="s">
+      <c r="D57" s="39" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="31"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="32"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="45"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -6997,13 +6998,13 @@
         <v>28</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -7011,47 +7012,47 @@
         <v>29</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="68" t="s">
+      <c r="B63" s="39" t="s">
         <v>272</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="68" t="s">
+      <c r="D63" s="39" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="31"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="32"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="45"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -7073,13 +7074,13 @@
         <v>28</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -7087,39 +7088,39 @@
         <v>29</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="68" t="s">
+      <c r="B69" s="39" t="s">
         <v>272</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="68" t="s">
+      <c r="D69" s="39" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="31"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="45"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -7135,7 +7136,7 @@
         <v>28</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -7143,19 +7144,25 @@
         <v>29</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="68" t="s">
+      <c r="B75" s="39" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A64:B64"/>
@@ -7169,12 +7176,6 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7199,13 +7200,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="33" t="s">
         <v>155</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="33" t="s">
         <v>155</v>
       </c>
       <c r="D1" s="19" t="s">
@@ -7397,10 +7398,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -7489,7 +7490,6 @@
       <c r="B23" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="66"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -7504,11 +7504,11 @@
     </row>
     <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="27" t="s">
         <v>220</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="27" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7527,10 +7527,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
@@ -7613,13 +7613,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="33" t="s">
         <v>155</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="33" t="s">
         <v>155</v>
       </c>
       <c r="D34" s="19" t="s">
@@ -7793,7 +7793,6 @@
       <c r="B47" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="66"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7811,10 +7810,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="31"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="45"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
@@ -7884,7 +7883,6 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
-      <c r="B55" s="66"/>
       <c r="C55" s="6" t="s">
         <v>29</v>
       </c>
@@ -7904,11 +7902,11 @@
     </row>
     <row r="57" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="27" t="s">
         <v>232</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="27" t="s">
         <v>222</v>
       </c>
     </row>
@@ -7927,10 +7925,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="31"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="32"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="45"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
@@ -7991,16 +7989,15 @@
       <c r="B64" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
-      <c r="B65" s="66"/>
       <c r="C65" s="6" t="s">
         <v>29</v>
       </c>
@@ -8020,7 +8017,7 @@
       <c r="A67" s="6"/>
       <c r="B67" s="8"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="27" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8081,203 +8078,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>349</v>
+      </c>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>305</v>
-      </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="I2" s="51"/>
-    </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="36" t="s">
         <v>234</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="63" t="s">
-        <v>306</v>
-      </c>
-      <c r="G3" s="61" t="s">
+      <c r="F3" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>234</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="63" t="s">
-        <v>311</v>
+      <c r="I3" s="37" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="29" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="29" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="61" t="s">
+      <c r="B5" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="65" t="s">
-        <v>312</v>
-      </c>
-      <c r="I5" s="39"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+    </row>
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="67" t="s">
-        <v>301</v>
-      </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="40"/>
-    </row>
-    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+      <c r="B7" s="59" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>308</v>
-      </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="H7" s="64" t="s">
-        <v>314</v>
-      </c>
-      <c r="I7" s="57"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>311</v>
+      </c>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="41" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="41" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="42"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
     </row>
     <row r="9" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="52" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="52" t="s">
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
     </row>
     <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
     </row>
     <row r="14" spans="1:9" ht="55.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8287,6 +8284,7 @@
     <row r="20" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="A1:I1"/>
@@ -8303,7 +8301,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8337,203 +8334,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="60" t="s">
+      <c r="F2" s="58"/>
+      <c r="G2" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="I2" s="51"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="36" t="s">
         <v>234</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="36" t="s">
         <v>234</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="37" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="29" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="29" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="61" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="54"/>
+      <c r="G5" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="I5" s="39"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="67" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="37" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="40"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="61" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="61" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="I7" s="57"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="41" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="41" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="42"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="52" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="52" t="s">
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
     </row>
     <row r="11" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
     </row>
     <row r="14" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8598,6 +8595,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:C6"/>
@@ -8614,7 +8612,6 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
